--- a/ACM_Screening_Results.xlsx
+++ b/ACM_Screening_Results.xlsx
@@ -495,7 +495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,14 +503,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="35" customWidth="1" min="1" max="1"/>
     <col width="85" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>SYSTEMATIC REVIEW: ACM Digital Library Screening Results</t>
+          <t>SYSTEMATIC REVIEW: ACM Digital Library (via OpenAlex) Screening Results</t>
         </is>
       </c>
     </row>
@@ -537,61 +537,61 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ACM Digital Library (via OpenAlex API)</t>
+          <t>ACM Digital Library (via OpenAlex)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Date:</t>
+          <t>Search Method:</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>OpenAlex API with ACM publisher filter (p4310319798)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
           <t>Queries:</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>15 focused text searches filtered to ACM publisher</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>15 queries</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>SCREENING FLOW:</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Total Unique Papers Found:</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>435</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Title+Abstract Screened:</t>
+          <t xml:space="preserve">  Total Unique Papers Found:</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -615,148 +615,160 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Passed Full-Text Screen:</t>
+          <t xml:space="preserve">  Full-Text Screened:</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Full-Text Not Available (passed through):</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Full-Text Excluded:</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>FINAL RESULTS:</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">  INCLUDED:</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  EXCLUDED (title+abstract):</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  EXCLUDED:</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>419</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  EXCLUDED (full-text):</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-    </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>PRIMARY RESEARCH QUESTION:</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>What approaches are used to assess or mitigate algorithmic bias in health AI?</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>What approaches are used to assess or mitigate algorithmic bias in health AI?</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>SECONDARY RESEARCH QUESTIONS:</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>Q1:</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Are certain bias axes (race/ethnicity, gender, SES, language, age, disability) more commonly assessed?</t>
+          <t>SECONDARY RESEARCH QUESTIONS:</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>Q2:</t>
+          <t>Q1:</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>At what point of the AI development lifecycle does assessment vs. mitigation happen?</t>
+          <t>Are certain bias axes (race/ethnicity, gender, SES, language, age, disability) more commonly assessed?</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
+          <t>Q2:</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>At what point of the AI development lifecycle does assessment vs. mitigation happen?</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
           <t>Q3:</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>How do approaches vary by clinical setting or context?</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-    </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>INCLUSION:</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Papers about bias/fairness in ML/AI algorithms applied to health (central topic)</t>
-        </is>
-      </c>
+      <c r="A27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
+          <t>INCLUSION:</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Papers about bias/fairness in ML/AI algorithms applied to health (central topic)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
           <t>EXCLUSION:</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Human cognitive biases, statistical bias without AI/ML, bias mentioned in passing only</t>
         </is>
@@ -773,7 +785,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -783,26 +795,26 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="5" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
     <col width="65" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="35" customWidth="1" min="6" max="6"/>
-    <col width="35" customWidth="1" min="7" max="7"/>
-    <col width="80" customWidth="1" min="8" max="8"/>
-    <col width="40" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="30" customWidth="1" min="11" max="11"/>
-    <col width="25" customWidth="1" min="12" max="12"/>
-    <col width="30" customWidth="1" min="13" max="13"/>
-    <col width="25" customWidth="1" min="14" max="14"/>
-    <col width="22" customWidth="1" min="15" max="15"/>
-    <col width="35" customWidth="1" min="16" max="16"/>
-    <col width="25" customWidth="1" min="17" max="17"/>
-    <col width="50" customWidth="1" min="18" max="18"/>
-    <col width="35" customWidth="1" min="19" max="19"/>
-    <col width="20" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="35" customWidth="1" min="8" max="8"/>
+    <col width="80" customWidth="1" min="9" max="9"/>
+    <col width="18" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="30" customWidth="1" min="12" max="12"/>
+    <col width="25" customWidth="1" min="13" max="13"/>
+    <col width="30" customWidth="1" min="14" max="14"/>
+    <col width="25" customWidth="1" min="15" max="15"/>
+    <col width="22" customWidth="1" min="16" max="16"/>
+    <col width="35" customWidth="1" min="17" max="17"/>
+    <col width="25" customWidth="1" min="18" max="18"/>
+    <col width="50" customWidth="1" min="19" max="19"/>
+    <col width="35" customWidth="1" min="20" max="20"/>
+    <col width="20" customWidth="1" min="21" max="21"/>
     <col width="20" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
@@ -834,86 +846,86 @@
       </c>
       <c r="F1" s="6" t="inlineStr">
         <is>
-          <t>Venue/Journal</t>
+          <t>Journal/Venue</t>
         </is>
       </c>
       <c r="G1" s="6" t="inlineStr">
         <is>
+          <t>DOI</t>
+        </is>
+      </c>
+      <c r="H1" s="6" t="inlineStr">
+        <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>Abstract</t>
         </is>
       </c>
-      <c r="I1" s="6" t="inlineStr">
-        <is>
-          <t>FT Screening Reason</t>
-        </is>
-      </c>
       <c r="J1" s="6" t="inlineStr">
         <is>
+          <t>Full-Text Status</t>
+        </is>
+      </c>
+      <c r="K1" s="6" t="inlineStr">
+        <is>
           <t>Study Type</t>
         </is>
       </c>
-      <c r="K1" s="6" t="inlineStr">
+      <c r="L1" s="6" t="inlineStr">
         <is>
           <t>AI/ML Method</t>
         </is>
       </c>
-      <c r="L1" s="6" t="inlineStr">
+      <c r="M1" s="6" t="inlineStr">
         <is>
           <t>Health Domain</t>
         </is>
       </c>
-      <c r="M1" s="6" t="inlineStr">
+      <c r="N1" s="6" t="inlineStr">
         <is>
           <t>Bias Axes Assessed
 (Q1)</t>
         </is>
       </c>
-      <c r="N1" s="6" t="inlineStr">
+      <c r="O1" s="6" t="inlineStr">
         <is>
           <t>AI Lifecycle Stage
 (Q2)</t>
         </is>
       </c>
-      <c r="O1" s="6" t="inlineStr">
+      <c r="P1" s="6" t="inlineStr">
         <is>
           <t>Assessment vs Mitigation
 (Q2)</t>
         </is>
       </c>
-      <c r="P1" s="6" t="inlineStr">
+      <c r="Q1" s="6" t="inlineStr">
         <is>
           <t>Approach/Method</t>
         </is>
       </c>
-      <c r="Q1" s="6" t="inlineStr">
+      <c r="R1" s="6" t="inlineStr">
         <is>
           <t>Clinical Setting/Context
 (Q3)</t>
         </is>
       </c>
-      <c r="R1" s="6" t="inlineStr">
+      <c r="S1" s="6" t="inlineStr">
         <is>
           <t>Key Findings</t>
         </is>
       </c>
-      <c r="S1" s="6" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
       <c r="T1" s="6" t="inlineStr">
         <is>
+          <t>Keywords/MeSH</t>
+        </is>
+      </c>
+      <c r="U1" s="6" t="inlineStr">
+        <is>
           <t>Publication Type</t>
-        </is>
-      </c>
-      <c r="U1" s="6" t="inlineStr">
-        <is>
-          <t>Cited By</t>
         </is>
       </c>
       <c r="V1" s="6" t="inlineStr">
@@ -955,77 +967,77 @@
       </c>
       <c r="G2" s="7" t="inlineStr">
         <is>
+          <t>10.1145/3660631</t>
+        </is>
+      </c>
+      <c r="H2" s="7" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1145/3660631</t>
         </is>
       </c>
-      <c r="H2" s="7" t="inlineStr">
+      <c r="I2" s="7" t="inlineStr">
         <is>
           <t>The spread of infectious diseases is a highly complex spatiotemporal process, difficult to understand, predict, and effectively respond to. Machine learning and artificial intelligence (AI) have achieved impressive results in other learning and prediction tasks; however, while many AI solutions are developed for disease prediction, only a few of them are adopted by decision-makers to support policy interventions. Among several issues preventing their uptake, AI methods are known to amplify the bias in the data they are trained on. This is especially problematic for infectious disease models that typically leverage large, open, and inherently biased spatiotemporal data. These biases may propagate through the modeling pipeline to decision-making, resulting in inequitable policy interventions. Therefore, there is a need to gain an understanding of how the AI disease modeling pipeline can mitigate biased input data, in-processing models, and biased outputs. Specifically, our vision is to develop a large-scale micro-simulation of individuals from which human mobility, population, and disease ground-truth data can be obtained. From this complete dataset—which may not reflect the real world—we can sample and inject different types of bias. By using the sampled data in which bias is known (as it is given as the simulation parameter), we can explore how existing solutions for fairness in AI can mitigate and correct these biases and investigate novel AI fairness solutions. Achieving this vision would result in improved trust in such models for informing fair and equitable policy interventions.</t>
         </is>
       </c>
-      <c r="I2" s="7" t="inlineStr">
-        <is>
-          <t>Included: bias is central topic (abstract only)</t>
-        </is>
-      </c>
       <c r="J2" s="7" t="inlineStr">
         <is>
+          <t>No full text available — passed through</t>
+        </is>
+      </c>
+      <c r="K2" s="7" t="inlineStr">
+        <is>
           <t>Guideline/Policy</t>
         </is>
       </c>
-      <c r="K2" s="7" t="inlineStr">
+      <c r="L2" s="7" t="inlineStr">
         <is>
           <t>Clinical Prediction Model</t>
         </is>
       </c>
-      <c r="L2" s="7" t="inlineStr">
+      <c r="M2" s="7" t="inlineStr">
         <is>
           <t>ICU/Critical Care; Infectious Disease</t>
         </is>
       </c>
-      <c r="M2" s="7" t="inlineStr">
+      <c r="N2" s="7" t="inlineStr">
         <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="N2" s="7" t="inlineStr">
+      <c r="O2" s="7" t="inlineStr">
         <is>
           <t>Model Development/Training</t>
         </is>
       </c>
-      <c r="O2" s="7" t="inlineStr">
+      <c r="P2" s="7" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="P2" s="7" t="inlineStr">
+      <c r="Q2" s="7" t="inlineStr">
         <is>
           <t>Not specified</t>
         </is>
       </c>
-      <c r="Q2" s="7" t="inlineStr">
+      <c r="R2" s="7" t="inlineStr">
         <is>
           <t>ICU; Public Health/Population</t>
         </is>
       </c>
-      <c r="R2" s="7" t="inlineStr">
+      <c r="S2" s="7" t="inlineStr">
         <is>
           <t>By using the sampled data in which bias is known (as it is given as the simulation parameter), we can explore how existing solutions for fairness in AI can mitigate and correct these biases and investigate novel AI fairness solutions. Achieving this vision would result in improved trust in such models for informing fair and equitable policy interventions.</t>
         </is>
       </c>
-      <c r="S2" s="7" t="inlineStr">
+      <c r="T2" s="7" t="inlineStr">
         <is>
           <t>Computer science; Infectious disease (medical specialty); Disease; Medicine</t>
         </is>
       </c>
-      <c r="T2" s="7" t="inlineStr">
+      <c r="U2" s="7" t="inlineStr">
         <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="U2" s="7" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
       <c r="V2" s="7" t="inlineStr"/>
@@ -1038,102 +1050,102 @@
       </c>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>10.1145/3631455</t>
+          <t>10.1145/3639368</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Bias Mitigation in Federated Learning for Edge Computing</t>
+          <t>Fairness-Driven Private Collaborative Machine Learning</t>
         </is>
       </c>
       <c r="D3" s="8" t="inlineStr">
         <is>
-          <t>Yasmine Djebrouni et al.</t>
+          <t>Dana Pessach et al.</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
         <is>
-          <t>Proceedings of the ACM on Interactive Mobile Wearable and Ubiquitous Technologies</t>
+          <t>ACM Transactions on Intelligent Systems and Technology</t>
         </is>
       </c>
       <c r="G3" s="8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3631455</t>
+          <t>10.1145/3639368</t>
         </is>
       </c>
       <c r="H3" s="8" t="inlineStr">
         <is>
-          <t>Federated learning (FL) is a distributed machine learning paradigm that enables data owners to collaborate on training models while preserving data privacy. As FL effectively leverages decentralized and sensitive data sources, it is increasingly used in ubiquitous computing including remote healthcare, activity recognition, and mobile applications. However, FL raises ethical and social concerns as it may introduce bias with regard to sensitive attributes such as race, gender, and location. Mitigating FL bias is thus a major research challenge. In this paper, we propose Astral, a novel bias mitigation system for FL. Astral provides a novel model aggregation approach to select the most effective aggregation weights to combine FL clients' models. It guarantees a predefined fairness objective by constraining bias below a given threshold while keeping model accuracy as high as possible. Astral handles the bias of single and multiple sensitive attributes and supports all bias metrics. Our comprehensive evaluation on seven real-world datasets with three popular bias metrics shows that Astral outperforms state-of-the-art FL bias mitigation techniques in terms of bias mitigation and model accuracy. Moreover, we show that Astral is robust against data heterogeneity and scalable in terms of data size and number of FL clients. Astral's code base is publicly available.</t>
+          <t>https://doi.org/10.1145/3639368</t>
         </is>
       </c>
       <c r="I3" s="8" t="inlineStr">
         <is>
-          <t>Included: bias central + approach content</t>
+          <t>The performance of machine learning algorithms can be considerably improved when trained over larger datasets. In many domains, such as medicine and finance, larger datasets can be obtained if several parties, each having access to limited amounts of data, collaborate and share their data. However, such data sharing introduces significant privacy challenges. While multiple recent studies have investigated methods for private collaborative machine learning, the fairness of such collaborative algorithms has been overlooked. In this work, we suggest a feasible privacy-preserving pre-process mechanism for enhancing fairness of collaborative machine learning algorithms. An extensive evaluation of the proposed method shows that it is able to enhance fairness considerably with only a minor compromise in accuracy.</t>
         </is>
       </c>
       <c r="J3" s="8" t="inlineStr">
         <is>
-          <t>Methodology</t>
+          <t>No full text available — passed through</t>
         </is>
       </c>
       <c r="K3" s="8" t="inlineStr">
         <is>
-          <t>Federated Learning</t>
+          <t>Empirical Study</t>
         </is>
       </c>
       <c r="L3" s="8" t="inlineStr">
         <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="M3" s="8" t="inlineStr">
+        <is>
           <t>General Healthcare</t>
         </is>
       </c>
-      <c r="M3" s="8" t="inlineStr">
-        <is>
-          <t>Race/Ethnicity; Gender/Sex; Age; Intersectional</t>
-        </is>
-      </c>
       <c r="N3" s="8" t="inlineStr">
         <is>
-          <t>Data Collection; Model Evaluation; Deployment</t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="O3" s="8" t="inlineStr">
         <is>
-          <t>Both</t>
+          <t>Data Preprocessing; Model Evaluation</t>
         </is>
       </c>
       <c r="P3" s="8" t="inlineStr">
         <is>
-          <t>Threshold Adjustment; Federated Learning</t>
+          <t>Assessment</t>
         </is>
       </c>
       <c r="Q3" s="8" t="inlineStr">
         <is>
-          <t>Telehealth/Remote</t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="R3" s="8" t="inlineStr">
         <is>
-          <t>Moreover, we show that Astral is robust against data heterogeneity and scalable in terms of data size and number of FL clients. Astral's code base is publicly available.</t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="S3" s="8" t="inlineStr">
         <is>
-          <t>Computer science; Scalability; Enhanced Data Rates for GSM Evolution; Data science; Gender bias; Data mining; Artificial intelligence; Database</t>
+          <t>In this work, we suggest a feasible privacy-preserving pre-process mechanism for enhancing fairness of collaborative machine learning algorithms. An extensive evaluation of the proposed method shows that it is able to enhance fairness considerably with only a minor compromise in accuracy.</t>
         </is>
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
+          <t>Computer science; Compromise; Machine learning; Artificial intelligence; Process (computing); Data sharing; Collaborative learning; Knowledge management</t>
+        </is>
+      </c>
+      <c r="U3" s="8" t="inlineStr">
+        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="U3" s="8" t="inlineStr">
-        <is>
-          <t>15</t>
         </is>
       </c>
       <c r="V3" s="8" t="inlineStr"/>
@@ -1146,17 +1158,17 @@
       </c>
       <c r="B4" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3616865</t>
+          <t>10.1145/3609502</t>
         </is>
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t>Fairness in Machine Learning: A Survey</t>
+          <t>Bias in Reinforcement Learning: A Review in Healthcare Applications</t>
         </is>
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t>Simon Caton et al.</t>
+          <t>Benjamin Smith et al.</t>
         </is>
       </c>
       <c r="E4" s="7" t="inlineStr">
@@ -1171,77 +1183,77 @@
       </c>
       <c r="G4" s="7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3616865</t>
+          <t>10.1145/3609502</t>
         </is>
       </c>
       <c r="H4" s="7" t="inlineStr">
         <is>
-          <t>When Machine Learning technologies are used in contexts that affect citizens, companies as well as researchers need to be confident that there will not be any unexpected social implications, such as bias towards gender, ethnicity, and/or people with disabilities. There is significant literature on approaches to mitigate bias and promote fairness, yet the area is complex and hard to penetrate for newcomers to the domain. This article seeks to provide an overview of the different schools of thought and approaches that aim to increase the fairness of Machine Learning. It organizes approaches into the widely accepted framework of pre-processing, in-processing, and post-processing methods, subcategorizing into a further 11 method areas. Although much of the literature emphasizes binary classification, a discussion of fairness in regression, recommender systems, and unsupervised learning is also provided along with a selection of currently available open source libraries. The article concludes by summarizing open challenges articulated as five dilemmas for fairness research.</t>
+          <t>https://doi.org/10.1145/3609502</t>
         </is>
       </c>
       <c r="I4" s="7" t="inlineStr">
         <is>
-          <t>Included: bias central + approach content</t>
+          <t>Reinforcement learning (RL) can assist in medical decision making using patient data collected in electronic health record (EHR) systems. RL, a type of machine learning, can use these data to develop treatment policies. However, RL models are typically trained using imperfect retrospective EHR data. Therefore, if care is not taken in training, RL policies can propagate existing bias in healthcare. Literature that considers and addresses the issues of bias and fairness in sequential decision making are reviewed. The major themes to mitigate bias that emerge relate to (1) data management; (2) algorithmic design; and (3) clinical understanding of the resulting policies.</t>
         </is>
       </c>
       <c r="J4" s="7" t="inlineStr">
         <is>
-          <t>Survey/Qualitative</t>
+          <t>No full text available — passed through</t>
         </is>
       </c>
       <c r="K4" s="7" t="inlineStr">
         <is>
-          <t>Generative AI; Clustering</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="L4" s="7" t="inlineStr">
         <is>
-          <t>ICU/Critical Care</t>
+          <t>Reinforcement Learning</t>
         </is>
       </c>
       <c r="M4" s="7" t="inlineStr">
         <is>
-          <t>Race/Ethnicity; Gender/Sex</t>
+          <t>EHR/Health Informatics</t>
         </is>
       </c>
       <c r="N4" s="7" t="inlineStr">
         <is>
-          <t>Data Preprocessing; Model Development/Training; Model Evaluation</t>
+          <t>Gender/Sex; Age</t>
         </is>
       </c>
       <c r="O4" s="7" t="inlineStr">
         <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="P4" s="7" t="inlineStr">
+        <is>
           <t>Mitigation</t>
         </is>
       </c>
-      <c r="P4" s="7" t="inlineStr">
-        <is>
-          <t>Post-hoc Correction</t>
-        </is>
-      </c>
       <c r="Q4" s="7" t="inlineStr">
         <is>
-          <t>ICU</t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="R4" s="7" t="inlineStr">
         <is>
-          <t>Although much of the literature emphasizes binary classification, a discussion of fairness in regression, recommender systems, and unsupervised learning is also provided along with a selection of currently available open source libraries. The article concludes by summarizing open challenges articulated as five dilemmas for fairness research.</t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="S4" s="7" t="inlineStr">
         <is>
-          <t>Computer science; Artificial intelligence; Machine learning</t>
+          <t>Literature that considers and addresses the issues of bias and fairness in sequential decision making are reviewed. The major themes to mitigate bias that emerge relate to (1) data management; (2) algorithmic design; and (3) clinical understanding of the resulting policies.</t>
         </is>
       </c>
       <c r="T4" s="7" t="inlineStr">
         <is>
+          <t>Reinforcement learning; Computer science; Health care; Imperfect; Artificial intelligence; Health records; Machine learning; Perfect information</t>
+        </is>
+      </c>
+      <c r="U4" s="7" t="inlineStr">
+        <is>
           <t>review</t>
-        </is>
-      </c>
-      <c r="U4" s="7" t="inlineStr">
-        <is>
-          <t>392</t>
         </is>
       </c>
       <c r="V4" s="7" t="inlineStr"/>
@@ -1254,17 +1266,17 @@
       </c>
       <c r="B5" s="8" t="inlineStr">
         <is>
-          <t>10.1145/3631326</t>
+          <t>10.1145/3631455</t>
         </is>
       </c>
       <c r="C5" s="8" t="inlineStr">
         <is>
-          <t>Bias Mitigation for Machine Learning Classifiers: A Comprehensive Survey</t>
+          <t>Bias Mitigation in Federated Learning for Edge Computing</t>
         </is>
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>Max Hort et al.</t>
+          <t>Yasmine Djebrouni et al.</t>
         </is>
       </c>
       <c r="E5" s="8" t="inlineStr">
@@ -1274,82 +1286,82 @@
       </c>
       <c r="F5" s="8" t="inlineStr">
         <is>
-          <t>ACM Journal on Responsible Computing</t>
+          <t>Proceedings of the ACM on Interactive Mobile Wearable and Ubiquitous Technologies</t>
         </is>
       </c>
       <c r="G5" s="8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3631326</t>
+          <t>10.1145/3631455</t>
         </is>
       </c>
       <c r="H5" s="8" t="inlineStr">
         <is>
-          <t>This article provides a comprehensive survey of bias mitigation methods for achieving fairness in Machine Learning (ML) models. We collect a total of 341 publications concerning bias mitigation for ML classifiers. These methods can be distinguished based on their intervention procedure (i.e., pre-processing, in-processing, post-processing) and the technique they apply. We investigate how existing bias mitigation methods are evaluated in the literature. In particular, we consider datasets, metrics, and benchmarking. Based on the gathered insights (e.g., What is the most popular fairness metric? How many datasets are used for evaluating bias mitigation methods?), we hope to support practitioners in making informed choices when developing and evaluating new bias mitigation methods.</t>
+          <t>https://doi.org/10.1145/3631455</t>
         </is>
       </c>
       <c r="I5" s="8" t="inlineStr">
         <is>
-          <t>Included: bias central + approach content</t>
+          <t>Federated learning (FL) is a distributed machine learning paradigm that enables data owners to collaborate on training models while preserving data privacy. As FL effectively leverages decentralized and sensitive data sources, it is increasingly used in ubiquitous computing including remote healthcare, activity recognition, and mobile applications. However, FL raises ethical and social concerns as it may introduce bias with regard to sensitive attributes such as race, gender, and location. Mitigating FL bias is thus a major research challenge. In this paper, we propose Astral, a novel bias mitigation system for FL. Astral provides a novel model aggregation approach to select the most effective aggregation weights to combine FL clients' models. It guarantees a predefined fairness objective by constraining bias below a given threshold while keeping model accuracy as high as possible. Astral handles the bias of single and multiple sensitive attributes and supports all bias metrics. Our comprehensive evaluation on seven real-world datasets with three popular bias metrics shows that Astral outperforms state-of-the-art FL bias mitigation techniques in terms of bias mitigation and model accuracy. Moreover, we show that Astral is robust against data heterogeneity and scalable in terms of data size and number of FL clients. Astral's code base is publicly available.</t>
         </is>
       </c>
       <c r="J5" s="8" t="inlineStr">
         <is>
-          <t>Survey/Qualitative</t>
+          <t>No full text available — passed through</t>
         </is>
       </c>
       <c r="K5" s="8" t="inlineStr">
         <is>
-          <t>Not specified</t>
+          <t>Methodology</t>
         </is>
       </c>
       <c r="L5" s="8" t="inlineStr">
         <is>
-          <t>ICU/Critical Care</t>
+          <t>Federated Learning</t>
         </is>
       </c>
       <c r="M5" s="8" t="inlineStr">
         <is>
-          <t>Not specified</t>
+          <t>General Healthcare</t>
         </is>
       </c>
       <c r="N5" s="8" t="inlineStr">
         <is>
-          <t>Data Preprocessing; Model Development/Training; Model Evaluation</t>
+          <t>Race/Ethnicity; Gender/Sex; Age; Intersectional</t>
         </is>
       </c>
       <c r="O5" s="8" t="inlineStr">
         <is>
+          <t>Data Collection; Model Evaluation; Deployment</t>
+        </is>
+      </c>
+      <c r="P5" s="8" t="inlineStr">
+        <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="P5" s="8" t="inlineStr">
-        <is>
-          <t>Fairness Metrics Evaluation; Post-hoc Correction</t>
-        </is>
-      </c>
       <c r="Q5" s="8" t="inlineStr">
         <is>
-          <t>ICU</t>
+          <t>Threshold Adjustment; Federated Learning</t>
         </is>
       </c>
       <c r="R5" s="8" t="inlineStr">
         <is>
-          <t>Based on the gathered insights (e.g., What is the most popular fairness metric? How many datasets are used for evaluating bias mitigation methods?), we hope to support practitioners in making informed choices when developing and evaluating new bias mitigation methods.</t>
+          <t>Telehealth/Remote</t>
         </is>
       </c>
       <c r="S5" s="8" t="inlineStr">
         <is>
-          <t>Machine learning; Artificial intelligence; Computer science</t>
+          <t>Moreover, we show that Astral is robust against data heterogeneity and scalable in terms of data size and number of FL clients. Astral's code base is publicly available.</t>
         </is>
       </c>
       <c r="T5" s="8" t="inlineStr">
         <is>
+          <t>Computer science; Scalability; Enhanced Data Rates for GSM Evolution; Data science; Gender bias; Data mining; Artificial intelligence; Database</t>
+        </is>
+      </c>
+      <c r="U5" s="8" t="inlineStr">
+        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="U5" s="8" t="inlineStr">
-        <is>
-          <t>165</t>
         </is>
       </c>
       <c r="V5" s="8" t="inlineStr"/>
@@ -1362,17 +1374,17 @@
       </c>
       <c r="B6" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3637549</t>
+          <t>10.1145/3610914</t>
         </is>
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t>Fairness in Deep Learning: A Survey on Vision and Language Research</t>
+          <t>Uncovering Bias in Personal Informatics</t>
         </is>
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t>Otávio Parraga et al.</t>
+          <t>Sofia Yfantidou et al.</t>
         </is>
       </c>
       <c r="E6" s="7" t="inlineStr">
@@ -1382,52 +1394,52 @@
       </c>
       <c r="F6" s="7" t="inlineStr">
         <is>
-          <t>ACM Computing Surveys</t>
+          <t>Proceedings of the ACM on Interactive Mobile Wearable and Ubiquitous Technologies</t>
         </is>
       </c>
       <c r="G6" s="7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3637549</t>
+          <t>10.1145/3610914</t>
         </is>
       </c>
       <c r="H6" s="7" t="inlineStr">
         <is>
-          <t>Despite being responsible for state-of-the-art results in several computer vision and natural language processing tasks, neural networks have faced harsh criticism due to some of their current shortcomings. One of them is that neural networks are correlation machines prone to model biases within the data instead of focusing on actual useful causal relationships. This problem is particularly serious in application domains affected by aspects such as race, gender, and age. To prevent models from incurring unfair decision-making, the AI community has concentrated efforts on correcting algorithmic biases, giving rise to the research area now widely known as fairness in AI . In this survey paper, we provide an in-depth overview of the main debiasing methods for fairness-aware neural networks in the context of vision and language research. We propose a novel taxonomy that builds upon previous proposals but is tailored for deep learning research to better organize the literature on debiasing methods for fairness. We review all important neural-based methods and evaluation metrics while discussing the current challenges, trends, and important future work directions for the interested researcher and practitioner.</t>
+          <t>https://doi.org/10.1145/3610914</t>
         </is>
       </c>
       <c r="I6" s="7" t="inlineStr">
         <is>
-          <t>Included: bias central + approach content</t>
+          <t>Personal informatics (PI) systems, powered by smartphones and wearables, enable people to lead healthier lifestyles by providing meaningful and actionable insights that break down barriers between users and their health information. Today, such systems are used by billions of users for monitoring not only physical activity and sleep but also vital signs and women's and heart health, among others. Despite their widespread usage, the processing of sensitive PI data may suffer from biases, which may entail practical and ethical implications. In this work, we present the first comprehensive empirical and analytical study of bias in PI systems, including biases in raw data and in the entire machine learning life cycle. We use the most detailed framework to date for exploring the different sources of bias and find that biases exist both in the data generation and the model learning and implementation streams. According to our results, the most affected minority groups are users with health issues, such as diabetes, joint issues, and hypertension, and female users, whose data biases are propagated or even amplified by learning models, while intersectional biases can also be observed.</t>
         </is>
       </c>
       <c r="J6" s="7" t="inlineStr">
         <is>
-          <t>Survey/Qualitative</t>
+          <t>No full text available — passed through</t>
         </is>
       </c>
       <c r="K6" s="7" t="inlineStr">
         <is>
-          <t>Deep Learning; NLP/LLM; Neural Network; Computer Vision/Imaging AI; Generative AI</t>
+          <t>Framework/Toolkit</t>
         </is>
       </c>
       <c r="L6" s="7" t="inlineStr">
         <is>
-          <t>ICU/Critical Care</t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="M6" s="7" t="inlineStr">
         <is>
-          <t>Race/Ethnicity; Gender/Sex; Age; Language</t>
+          <t>Cardiology; EHR/Health Informatics; Endocrinology/Diabetes; Wearables/Remote Monitoring</t>
         </is>
       </c>
       <c r="N6" s="7" t="inlineStr">
         <is>
-          <t>Model Evaluation</t>
+          <t>Race/Ethnicity; Gender/Sex; Age; Intersectional</t>
         </is>
       </c>
       <c r="O6" s="7" t="inlineStr">
         <is>
-          <t>Both</t>
+          <t>Deployment</t>
         </is>
       </c>
       <c r="P6" s="7" t="inlineStr">
@@ -1437,27 +1449,27 @@
       </c>
       <c r="Q6" s="7" t="inlineStr">
         <is>
-          <t>ICU; Public Health/Population</t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="R6" s="7" t="inlineStr">
         <is>
-          <t>We propose a novel taxonomy that builds upon previous proposals but is tailored for deep learning research to better organize the literature on debiasing methods for fairness. We review all important neural-based methods and evaluation metrics while discussing the current challenges, trends, and important future work directions for the interested researcher and practitioner.</t>
+          <t>Telehealth/Remote</t>
         </is>
       </c>
       <c r="S6" s="7" t="inlineStr">
         <is>
-          <t>Debiasing; Computer science; Artificial intelligence; Artificial neural network; Taxonomy (biology); Deep learning; Machine learning; Deep neural networks; Data science; Context (archaeology); Cognitive science; Psychology</t>
+          <t>We use the most detailed framework to date for exploring the different sources of bias and find that biases exist both in the data generation and the model learning and implementation streams. According to our results, the most affected minority groups are users with health issues, such as diabetes, joint issues, and hypertension, and female users, whose data biases are propagated or even amplified by learning models, while intersectional biases can also be observed.</t>
         </is>
       </c>
       <c r="T6" s="7" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>Informatics; Wearable computer; Computer science; Health informatics; Wearable technology; Internet privacy; Data science; Raw data; Human–computer interaction; Applied psychology; Psychology; Health care; Engineering; Political science</t>
         </is>
       </c>
       <c r="U6" s="7" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>article</t>
         </is>
       </c>
       <c r="V6" s="7" t="inlineStr"/>
@@ -1470,102 +1482,102 @@
       </c>
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>10.1145/3524887</t>
+          <t>10.1145/3616865</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>Interpretable Bias Mitigation for Textual Data: Reducing Genderization in Patient Notes While Maintaining Classification Performance</t>
+          <t>Fairness in Machine Learning: A Survey</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>Joshua R. Minot et al.</t>
+          <t>Simon Caton et al.</t>
         </is>
       </c>
       <c r="E7" s="8" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
         <is>
-          <t>ACM Transactions on Computing for Healthcare</t>
+          <t>ACM Computing Surveys</t>
         </is>
       </c>
       <c r="G7" s="8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3524887</t>
+          <t>10.1145/3616865</t>
         </is>
       </c>
       <c r="H7" s="8" t="inlineStr">
         <is>
-          <t>Medical systems in general, and patient treatment decisions and outcomes in particular, can be affected by bias based on gender and other demographic elements. As language models are increasingly applied to medicine, there is a growing interest in building algorithmic fairness into processes impacting patient care. Much of the work addressing this question has focused on biases encoded in language models—statistical estimates of the relationships between concepts derived from distant reading of corpora. Building on this work, we investigate how differences in gender-specific word frequency distributions and language models interact with regards to bias. We identify and remove gendered language from two clinical-note datasets and describe a new debiasing procedure using BERT-based gender classifiers. We show minimal degradation in health condition classification tasks for low- to medium-levels of dataset bias removal via data augmentation. Finally, we compare the bias semantically encoded in the language models with the bias empirically observed in health records. This work outlines an interpretable approach for using data augmentation to identify and reduce biases in natural language processing pipelines.</t>
+          <t>https://doi.org/10.1145/3616865</t>
         </is>
       </c>
       <c r="I7" s="8" t="inlineStr">
         <is>
-          <t>Included: bias central + approach content</t>
+          <t>When Machine Learning technologies are used in contexts that affect citizens, companies as well as researchers need to be confident that there will not be any unexpected social implications, such as bias towards gender, ethnicity, and/or people with disabilities. There is significant literature on approaches to mitigate bias and promote fairness, yet the area is complex and hard to penetrate for newcomers to the domain. This article seeks to provide an overview of the different schools of thought and approaches that aim to increase the fairness of Machine Learning. It organizes approaches into the widely accepted framework of pre-processing, in-processing, and post-processing methods, subcategorizing into a further 11 method areas. Although much of the literature emphasizes binary classification, a discussion of fairness in regression, recommender systems, and unsupervised learning is also provided along with a selection of currently available open source libraries. The article concludes by summarizing open challenges articulated as five dilemmas for fairness research.</t>
         </is>
       </c>
       <c r="J7" s="8" t="inlineStr">
         <is>
-          <t>Framework/Toolkit</t>
+          <t>No full text available — passed through</t>
         </is>
       </c>
       <c r="K7" s="8" t="inlineStr">
         <is>
-          <t>NLP/LLM</t>
+          <t>Survey/Qualitative</t>
         </is>
       </c>
       <c r="L7" s="8" t="inlineStr">
         <is>
+          <t>Generative AI; Clustering</t>
+        </is>
+      </c>
+      <c r="M7" s="8" t="inlineStr">
+        <is>
           <t>ICU/Critical Care</t>
         </is>
       </c>
-      <c r="M7" s="8" t="inlineStr">
-        <is>
-          <t>Gender/Sex; Age; Language</t>
-        </is>
-      </c>
       <c r="N7" s="8" t="inlineStr">
         <is>
-          <t>Data Preprocessing</t>
+          <t>Race/Ethnicity; Gender/Sex</t>
         </is>
       </c>
       <c r="O7" s="8" t="inlineStr">
         <is>
-          <t>Both</t>
+          <t>Data Preprocessing; Model Development/Training; Model Evaluation</t>
         </is>
       </c>
       <c r="P7" s="8" t="inlineStr">
         <is>
-          <t>Data Augmentation; Explainability/Interpretability</t>
+          <t>Mitigation</t>
         </is>
       </c>
       <c r="Q7" s="8" t="inlineStr">
         <is>
+          <t>Post-hoc Correction</t>
+        </is>
+      </c>
+      <c r="R7" s="8" t="inlineStr">
+        <is>
           <t>ICU</t>
         </is>
       </c>
-      <c r="R7" s="8" t="inlineStr">
-        <is>
-          <t>Finally, we compare the bias semantically encoded in the language models with the bias empirically observed in health records. This work outlines an interpretable approach for using data augmentation to identify and reduce biases in natural language processing pipelines.</t>
-        </is>
-      </c>
       <c r="S7" s="8" t="inlineStr">
         <is>
-          <t>Debiasing; Computer science; Language model; Artificial intelligence; Reading (process); Gender bias; Natural language processing; Work (physics); Machine learning; Health care; Data science; Psychology; Linguistics; Social psychology</t>
+          <t>Although much of the literature emphasizes binary classification, a discussion of fairness in regression, recommender systems, and unsupervised learning is also provided along with a selection of currently available open source libraries. The article concludes by summarizing open challenges articulated as five dilemmas for fairness research.</t>
         </is>
       </c>
       <c r="T7" s="8" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>Computer science; Artificial intelligence; Machine learning</t>
         </is>
       </c>
       <c r="U7" s="8" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>review</t>
         </is>
       </c>
       <c r="V7" s="8" t="inlineStr"/>
@@ -1578,102 +1590,102 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3527152</t>
+          <t>10.1145/3631326</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>Mitigating Bias in Algorithmic Systems—A Fish-eye View</t>
+          <t>Bias Mitigation for Machine Learning Classifiers: A Comprehensive Survey</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>Kalia Orphanou et al.</t>
+          <t>Max Hort et al.</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr">
         <is>
-          <t>ACM Computing Surveys</t>
+          <t>ACM Journal on Responsible Computing</t>
         </is>
       </c>
       <c r="G8" s="7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3527152</t>
+          <t>10.1145/3631326</t>
         </is>
       </c>
       <c r="H8" s="7" t="inlineStr">
         <is>
-          <t>Mitigating bias in algorithmic systems is a critical issue drawing attention across communities within the information and computer sciences. Given the complexity of the problem and the involvement of multiple stakeholders—including developers, end users, and third-parties—there is a need to understand the landscape of the sources of bias, and the solutions being proposed to address them, from a broad, cross-domain perspective. This survey provides a “fish-eye view,” examining approaches across four areas of research. The literature describes three steps toward a comprehensive treatment—bias detection, fairness management, and explainability management—and underscores the need to work from within the system as well as from the perspective of stakeholders in the broader context.</t>
+          <t>https://doi.org/10.1145/3631326</t>
         </is>
       </c>
       <c r="I8" s="7" t="inlineStr">
         <is>
-          <t>Included: bias is central topic (abstract only)</t>
+          <t>This article provides a comprehensive survey of bias mitigation methods for achieving fairness in Machine Learning (ML) models. We collect a total of 341 publications concerning bias mitigation for ML classifiers. These methods can be distinguished based on their intervention procedure (i.e., pre-processing, in-processing, post-processing) and the technique they apply. We investigate how existing bias mitigation methods are evaluated in the literature. In particular, we consider datasets, metrics, and benchmarking. Based on the gathered insights (e.g., What is the most popular fairness metric? How many datasets are used for evaluating bias mitigation methods?), we hope to support practitioners in making informed choices when developing and evaluating new bias mitigation methods.</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr">
         <is>
+          <t>No full text available — passed through</t>
+        </is>
+      </c>
+      <c r="K8" s="7" t="inlineStr">
+        <is>
           <t>Survey/Qualitative</t>
         </is>
       </c>
-      <c r="K8" s="7" t="inlineStr">
+      <c r="L8" s="7" t="inlineStr">
         <is>
           <t>Not specified</t>
         </is>
       </c>
-      <c r="L8" s="7" t="inlineStr">
-        <is>
-          <t>General Healthcare</t>
-        </is>
-      </c>
       <c r="M8" s="7" t="inlineStr">
         <is>
-          <t>Gender/Sex; Age</t>
+          <t>ICU/Critical Care</t>
         </is>
       </c>
       <c r="N8" s="7" t="inlineStr">
         <is>
-          <t>Model Evaluation</t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="O8" s="7" t="inlineStr">
         <is>
+          <t>Data Preprocessing; Model Development/Training; Model Evaluation</t>
+        </is>
+      </c>
+      <c r="P8" s="7" t="inlineStr">
+        <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="P8" s="7" t="inlineStr">
-        <is>
-          <t>Explainability/Interpretability</t>
-        </is>
-      </c>
       <c r="Q8" s="7" t="inlineStr">
         <is>
-          <t>Not specified</t>
+          <t>Fairness Metrics Evaluation; Post-hoc Correction</t>
         </is>
       </c>
       <c r="R8" s="7" t="inlineStr">
         <is>
-          <t>This survey provides a “fish-eye view,” examining approaches across four areas of research. The literature describes three steps toward a comprehensive treatment—bias detection, fairness management, and explainability management—and underscores the need to work from within the system as well as from the perspective of stakeholders in the broader context.</t>
+          <t>ICU</t>
         </is>
       </c>
       <c r="S8" s="7" t="inlineStr">
         <is>
-          <t>Computer science; Perspective (graphical); Context (archaeology); Domain (mathematical analysis); Data science; Fish &lt;Actinopterygii&gt;; Work (physics); Human–computer interaction; Artificial intelligence</t>
+          <t>Based on the gathered insights (e.g., What is the most popular fairness metric? How many datasets are used for evaluating bias mitigation methods?), we hope to support practitioners in making informed choices when developing and evaluating new bias mitigation methods.</t>
         </is>
       </c>
       <c r="T8" s="7" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>Machine learning; Artificial intelligence; Computer science</t>
         </is>
       </c>
       <c r="U8" s="7" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>article</t>
         </is>
       </c>
       <c r="V8" s="7" t="inlineStr"/>
@@ -1686,105 +1698,969 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
+          <t>10.1145/3610213</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>The Potential of Diverse Youth as Stakeholders in Identifying and Mitigating Algorithmic Bias for a Future of Fairer AI</t>
+        </is>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Jaemarie Solyst et al.</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Proceedings of the ACM on Human-Computer Interaction</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>10.1145/3610213</t>
+        </is>
+      </c>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3610213</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>Youth regularly use technology driven by artificial intelligence (AI). However, it is increasingly well-known that AI can cause harm on small and large scales, especially for those underrepresented in tech fields. Recently, users have played active roles in surfacing and mitigating harm from algorithmic bias. Despite being frequent users of AI, youth have been under-explored as potential contributors and stakeholders to the future of AI. We consider three notions that may be at the root of youth facing barriers to playing an active role in responsible AI, which are youth (1) cannot understand the technical aspects of AI, (2) cannot understand the ethical issues around AI, and (3) need protection from serious topics related to bias and injustice. In this study, we worked with youth (N = 30) in first through twelfth grade and parents (N = 6) to explore how youth can be part of identifying algorithmic bias and designing future systems to address problematic technology behavior. We found that youth are capable of identifying and articulating algorithmic bias, often in great detail. Participants suggested different ways users could give feedback for AI that reflects their values of diversity and inclusion. Youth who may have less experience with computing or exposure to societal structures can be supported by peers or adults with more of this knowledge, leading to critical conversations about fairer AI. This work illustrates youths' insights, suggesting that they should be integrated in building a future of responsible AI.</t>
+        </is>
+      </c>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>No full text available — passed through</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>Empirical Study</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="M9" s="8" t="inlineStr">
+        <is>
+          <t>ICU/Critical Care</t>
+        </is>
+      </c>
+      <c r="N9" s="8" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="O9" s="8" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="P9" s="8" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="Q9" s="8" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="R9" s="8" t="inlineStr">
+        <is>
+          <t>ICU</t>
+        </is>
+      </c>
+      <c r="S9" s="8" t="inlineStr">
+        <is>
+          <t>Youth who may have less experience with computing or exposure to societal structures can be supported by peers or adults with more of this knowledge, leading to critical conversations about fairer AI. This work illustrates youths' insights, suggesting that they should be integrated in building a future of responsible AI.</t>
+        </is>
+      </c>
+      <c r="T9" s="8" t="inlineStr">
+        <is>
+          <t>Harm; Diversity (politics); Injustice; Inclusion (mineral); Psychology; Political science; Computer science; Social psychology</t>
+        </is>
+      </c>
+      <c r="U9" s="8" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="V9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>10.1145/3637549</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr">
+        <is>
+          <t>Fairness in Deep Learning: A Survey on Vision and Language Research</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr">
+        <is>
+          <t>Otávio Parraga et al.</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="inlineStr">
+        <is>
+          <t>ACM Computing Surveys</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr">
+        <is>
+          <t>10.1145/3637549</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3637549</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr">
+        <is>
+          <t>Despite being responsible for state-of-the-art results in several computer vision and natural language processing tasks, neural networks have faced harsh criticism due to some of their current shortcomings. One of them is that neural networks are correlation machines prone to model biases within the data instead of focusing on actual useful causal relationships. This problem is particularly serious in application domains affected by aspects such as race, gender, and age. To prevent models from incurring unfair decision-making, the AI community has concentrated efforts on correcting algorithmic biases, giving rise to the research area now widely known as fairness in AI . In this survey paper, we provide an in-depth overview of the main debiasing methods for fairness-aware neural networks in the context of vision and language research. We propose a novel taxonomy that builds upon previous proposals but is tailored for deep learning research to better organize the literature on debiasing methods for fairness. We review all important neural-based methods and evaluation metrics while discussing the current challenges, trends, and important future work directions for the interested researcher and practitioner.</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr">
+        <is>
+          <t>No full text available — passed through</t>
+        </is>
+      </c>
+      <c r="K10" s="7" t="inlineStr">
+        <is>
+          <t>Survey/Qualitative</t>
+        </is>
+      </c>
+      <c r="L10" s="7" t="inlineStr">
+        <is>
+          <t>Deep Learning; NLP/LLM; Neural Network; Computer Vision/Imaging AI; Generative AI</t>
+        </is>
+      </c>
+      <c r="M10" s="7" t="inlineStr">
+        <is>
+          <t>ICU/Critical Care</t>
+        </is>
+      </c>
+      <c r="N10" s="7" t="inlineStr">
+        <is>
+          <t>Race/Ethnicity; Gender/Sex; Age; Language</t>
+        </is>
+      </c>
+      <c r="O10" s="7" t="inlineStr">
+        <is>
+          <t>Model Evaluation</t>
+        </is>
+      </c>
+      <c r="P10" s="7" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="Q10" s="7" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="R10" s="7" t="inlineStr">
+        <is>
+          <t>ICU; Public Health/Population</t>
+        </is>
+      </c>
+      <c r="S10" s="7" t="inlineStr">
+        <is>
+          <t>We propose a novel taxonomy that builds upon previous proposals but is tailored for deep learning research to better organize the literature on debiasing methods for fairness. We review all important neural-based methods and evaluation metrics while discussing the current challenges, trends, and important future work directions for the interested researcher and practitioner.</t>
+        </is>
+      </c>
+      <c r="T10" s="7" t="inlineStr">
+        <is>
+          <t>Debiasing; Computer science; Artificial intelligence; Artificial neural network; Taxonomy (biology); Deep learning; Machine learning; Deep neural networks; Data science; Context (archaeology); Cognitive science; Psychology</t>
+        </is>
+      </c>
+      <c r="U10" s="7" t="inlineStr">
+        <is>
+          <t>review</t>
+        </is>
+      </c>
+      <c r="V10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>10.1145/3616380</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>Analysis of Performance Improvements and Bias Associated with the Use of Human Mobility Data in COVID-19 Case Prediction Models</t>
+        </is>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>Saad Mohammad Abrar et al.</t>
+        </is>
+      </c>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>ACM Journal on Computing and Sustainable Societies</t>
+        </is>
+      </c>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>10.1145/3616380</t>
+        </is>
+      </c>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3616380</t>
+        </is>
+      </c>
+      <c r="I11" s="8" t="inlineStr">
+        <is>
+          <t>The COVID-19 pandemic has mainstreamed human mobility data into the public domain, with research focused on understanding the impact of mobility reduction policies as well as on regional COVID-19 case prediction models. Nevertheless, current research on COVID-19 case prediction tends to focus on performance improvements, masking relevant insights about when mobility data does not help, and more importantly, why, so that it can adequately inform local decision making. In this article, we carry out a systematic analysis to reveal the conditions under which human mobility data provides (or not) an enhancement over individual regional COVID-19 case prediction models that do not use mobility as a source of information. Our analysis—focused on U.S. county-based COVID-19 case prediction models—shows that (1) at most, 60% of counties improve their performance after adding mobility data; (2) the performance improvements are modest, with median correlation improvements of approximately 0.13; (3) improvements were lower for counties with higher Black, Hispanic, and other non-White populations as well as low-income and rural populations, pointing to potential bias in the mobility data negatively impacting predictive performance; and (4) different mobility datasets, predictive models, and training approaches bring about diverse performance improvements.</t>
+        </is>
+      </c>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>No full text available — passed through</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>Empirical Study</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="inlineStr">
+        <is>
+          <t>Clinical Prediction Model</t>
+        </is>
+      </c>
+      <c r="M11" s="8" t="inlineStr">
+        <is>
+          <t>Pulmonology</t>
+        </is>
+      </c>
+      <c r="N11" s="8" t="inlineStr">
+        <is>
+          <t>Race/Ethnicity; Gender/Sex; Socioeconomic Status; Geographic</t>
+        </is>
+      </c>
+      <c r="O11" s="8" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="P11" s="8" t="inlineStr">
+        <is>
+          <t>Mitigation</t>
+        </is>
+      </c>
+      <c r="Q11" s="8" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="R11" s="8" t="inlineStr">
+        <is>
+          <t>Public Health/Population</t>
+        </is>
+      </c>
+      <c r="S11" s="8" t="inlineStr">
+        <is>
+          <t>Our analysis—focused on U.S. county-based COVID-19 case prediction models—shows that (1) at most, 60% of counties improve their performance after adding mobility data; (2) the performance improvements are modest, with median correlation improvements of approximately 0.13; (3) improvements were lower for counties with higher Black, Hispanic, and other non-White populations as well as low-income and rural populations, pointing to potential bias in the mobility data negatively impacting predictive ...</t>
+        </is>
+      </c>
+      <c r="T11" s="8" t="inlineStr">
+        <is>
+          <t>Coronavirus disease 2019 (COVID-19); Masking (illustration); Computer science; Predictive modelling; Econometrics; Data science; Machine learning; Mathematics; Medicine</t>
+        </is>
+      </c>
+      <c r="U11" s="8" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="V11" s="8" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>10.1145/3524887</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr">
+        <is>
+          <t>Interpretable Bias Mitigation for Textual Data: Reducing Genderization in Patient Notes While Maintaining Classification Performance</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr">
+        <is>
+          <t>Joshua R. Minot et al.</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr">
+        <is>
+          <t>ACM Transactions on Computing for Healthcare</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr">
+        <is>
+          <t>10.1145/3524887</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3524887</t>
+        </is>
+      </c>
+      <c r="I12" s="7" t="inlineStr">
+        <is>
+          <t>Medical systems in general, and patient treatment decisions and outcomes in particular, can be affected by bias based on gender and other demographic elements. As language models are increasingly applied to medicine, there is a growing interest in building algorithmic fairness into processes impacting patient care. Much of the work addressing this question has focused on biases encoded in language models—statistical estimates of the relationships between concepts derived from distant reading of corpora. Building on this work, we investigate how differences in gender-specific word frequency distributions and language models interact with regards to bias. We identify and remove gendered language from two clinical-note datasets and describe a new debiasing procedure using BERT-based gender classifiers. We show minimal degradation in health condition classification tasks for low- to medium-levels of dataset bias removal via data augmentation. Finally, we compare the bias semantically encoded in the language models with the bias empirically observed in health records. This work outlines an interpretable approach for using data augmentation to identify and reduce biases in natural language processing pipelines.</t>
+        </is>
+      </c>
+      <c r="J12" s="7" t="inlineStr">
+        <is>
+          <t>No full text available — passed through</t>
+        </is>
+      </c>
+      <c r="K12" s="7" t="inlineStr">
+        <is>
+          <t>Framework/Toolkit</t>
+        </is>
+      </c>
+      <c r="L12" s="7" t="inlineStr">
+        <is>
+          <t>NLP/LLM</t>
+        </is>
+      </c>
+      <c r="M12" s="7" t="inlineStr">
+        <is>
+          <t>ICU/Critical Care</t>
+        </is>
+      </c>
+      <c r="N12" s="7" t="inlineStr">
+        <is>
+          <t>Gender/Sex; Age; Language</t>
+        </is>
+      </c>
+      <c r="O12" s="7" t="inlineStr">
+        <is>
+          <t>Data Preprocessing</t>
+        </is>
+      </c>
+      <c r="P12" s="7" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="Q12" s="7" t="inlineStr">
+        <is>
+          <t>Data Augmentation; Explainability/Interpretability</t>
+        </is>
+      </c>
+      <c r="R12" s="7" t="inlineStr">
+        <is>
+          <t>ICU</t>
+        </is>
+      </c>
+      <c r="S12" s="7" t="inlineStr">
+        <is>
+          <t>Finally, we compare the bias semantically encoded in the language models with the bias empirically observed in health records. This work outlines an interpretable approach for using data augmentation to identify and reduce biases in natural language processing pipelines.</t>
+        </is>
+      </c>
+      <c r="T12" s="7" t="inlineStr">
+        <is>
+          <t>Debiasing; Computer science; Language model; Artificial intelligence; Reading (process); Gender bias; Natural language processing; Work (physics); Machine learning; Health care; Data science; Psychology; Linguistics; Social psychology</t>
+        </is>
+      </c>
+      <c r="U12" s="7" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="V12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>10.1145/3527152</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>Mitigating Bias in Algorithmic Systems—A Fish-eye View</t>
+        </is>
+      </c>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Kalia Orphanou et al.</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>ACM Computing Surveys</t>
+        </is>
+      </c>
+      <c r="G13" s="8" t="inlineStr">
+        <is>
+          <t>10.1145/3527152</t>
+        </is>
+      </c>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3527152</t>
+        </is>
+      </c>
+      <c r="I13" s="8" t="inlineStr">
+        <is>
+          <t>Mitigating bias in algorithmic systems is a critical issue drawing attention across communities within the information and computer sciences. Given the complexity of the problem and the involvement of multiple stakeholders—including developers, end users, and third-parties—there is a need to understand the landscape of the sources of bias, and the solutions being proposed to address them, from a broad, cross-domain perspective. This survey provides a “fish-eye view,” examining approaches across four areas of research. The literature describes three steps toward a comprehensive treatment—bias detection, fairness management, and explainability management—and underscores the need to work from within the system as well as from the perspective of stakeholders in the broader context.</t>
+        </is>
+      </c>
+      <c r="J13" s="8" t="inlineStr">
+        <is>
+          <t>No full text available — passed through</t>
+        </is>
+      </c>
+      <c r="K13" s="8" t="inlineStr">
+        <is>
+          <t>Survey/Qualitative</t>
+        </is>
+      </c>
+      <c r="L13" s="8" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="M13" s="8" t="inlineStr">
+        <is>
+          <t>General Healthcare</t>
+        </is>
+      </c>
+      <c r="N13" s="8" t="inlineStr">
+        <is>
+          <t>Gender/Sex; Age</t>
+        </is>
+      </c>
+      <c r="O13" s="8" t="inlineStr">
+        <is>
+          <t>Model Evaluation</t>
+        </is>
+      </c>
+      <c r="P13" s="8" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="Q13" s="8" t="inlineStr">
+        <is>
+          <t>Explainability/Interpretability</t>
+        </is>
+      </c>
+      <c r="R13" s="8" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="S13" s="8" t="inlineStr">
+        <is>
+          <t>This survey provides a “fish-eye view,” examining approaches across four areas of research. The literature describes three steps toward a comprehensive treatment—bias detection, fairness management, and explainability management—and underscores the need to work from within the system as well as from the perspective of stakeholders in the broader context.</t>
+        </is>
+      </c>
+      <c r="T13" s="8" t="inlineStr">
+        <is>
+          <t>Computer science; Perspective (graphical); Context (archaeology); Domain (mathematical analysis); Data science; Fish &lt;Actinopterygii&gt;; Work (physics); Human–computer interaction; Artificial intelligence</t>
+        </is>
+      </c>
+      <c r="U13" s="8" t="inlineStr">
+        <is>
+          <t>review</t>
+        </is>
+      </c>
+      <c r="V13" s="8" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
           <t>10.1145/3468507.3468518</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
+      <c r="C14" s="7" t="inlineStr">
         <is>
           <t>An Empirical Comparison of Bias Reduction Methods on Real-World Problems in High-Stakes Policy Settings</t>
         </is>
       </c>
-      <c r="D9" s="8" t="inlineStr">
+      <c r="D14" s="7" t="inlineStr">
         <is>
           <t>Hemank Lamba et al.</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr">
+      <c r="E14" s="7" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="F14" s="7" t="inlineStr">
         <is>
           <t>ACM SIGKDD Explorations Newsletter</t>
         </is>
       </c>
-      <c r="G9" s="8" t="inlineStr">
+      <c r="G14" s="7" t="inlineStr">
+        <is>
+          <t>10.1145/3468507.3468518</t>
+        </is>
+      </c>
+      <c r="H14" s="7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1145/3468507.3468518</t>
         </is>
       </c>
-      <c r="H9" s="8" t="inlineStr">
+      <c r="I14" s="7" t="inlineStr">
         <is>
           <t>Applications of machine learning (ML) to high-stakes policy settings - such as education, criminal justice, healthcare, and social service delivery - have grown rapidly in recent years, sparking important conversations about how to ensure fair outcomes from these systems. The machine learning research community has responded to this challenge with a wide array of proposed fairness-enhancing strategies for ML models, but despite the large number of methods that have been developed, little empirical work exists evaluating these methods in real-world settings. Here, we seek to fill this research gap by investigating the performance of several methods that operate at different points in the ML pipeline across four real-world public policy and social good problems. Across these problems, we find a wide degree of variability and inconsistency in the ability of many of these methods to improve model fairness, but postprocessing by choosing group-specific score thresholds consistently removes disparities, with important implications for both the ML research community and practitioners deploying machine learning to inform consequential policy decisions.</t>
         </is>
       </c>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>Included: bias is central topic (abstract only)</t>
-        </is>
-      </c>
-      <c r="J9" s="8" t="inlineStr">
+      <c r="J14" s="7" t="inlineStr">
+        <is>
+          <t>No full text available — passed through</t>
+        </is>
+      </c>
+      <c r="K14" s="7" t="inlineStr">
         <is>
           <t>Guideline/Policy</t>
         </is>
       </c>
-      <c r="K9" s="8" t="inlineStr">
+      <c r="L14" s="7" t="inlineStr">
         <is>
           <t>Not specified</t>
         </is>
       </c>
-      <c r="L9" s="8" t="inlineStr">
+      <c r="M14" s="7" t="inlineStr">
         <is>
           <t>General Healthcare</t>
         </is>
       </c>
-      <c r="M9" s="8" t="inlineStr">
+      <c r="N14" s="7" t="inlineStr">
         <is>
           <t>Not specified</t>
         </is>
       </c>
-      <c r="N9" s="8" t="inlineStr">
+      <c r="O14" s="7" t="inlineStr">
         <is>
           <t>Deployment</t>
         </is>
       </c>
-      <c r="O9" s="8" t="inlineStr">
+      <c r="P14" s="7" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="P9" s="8" t="inlineStr">
+      <c r="Q14" s="7" t="inlineStr">
         <is>
           <t>Threshold Adjustment</t>
         </is>
       </c>
-      <c r="Q9" s="8" t="inlineStr">
+      <c r="R14" s="7" t="inlineStr">
         <is>
           <t>Public Health/Population</t>
         </is>
       </c>
-      <c r="R9" s="8" t="inlineStr">
+      <c r="S14" s="7" t="inlineStr">
         <is>
           <t>Here, we seek to fill this research gap by investigating the performance of several methods that operate at different points in the ML pipeline across four real-world public policy and social good problems. Across these problems, we find a wide degree of variability and inconsistency in the ability of many of these methods to improve model fairness, but postprocessing by choosing group-specific score thresholds consistently removes disparities, with important implications for both the ML researc...</t>
         </is>
       </c>
-      <c r="S9" s="8" t="inlineStr">
+      <c r="T14" s="7" t="inlineStr">
         <is>
           <t>Pipeline (software); Empirical research; Computer science; Machine learning; Social work; Work (physics); Artificial intelligence; Economics; Engineering; Economic growth</t>
         </is>
       </c>
-      <c r="T9" s="8" t="inlineStr">
+      <c r="U14" s="7" t="inlineStr">
         <is>
           <t>preprint</t>
         </is>
       </c>
-      <c r="U9" s="8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="V9" s="8" t="inlineStr"/>
+      <c r="V14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>10.1145/3473673</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>How Could Equality and Data Protection Law Shape AI Fairness for People with Disabilities?</t>
+        </is>
+      </c>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Reuben Binns et al.</t>
+        </is>
+      </c>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>ACM Transactions on Accessible Computing</t>
+        </is>
+      </c>
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>10.1145/3473673</t>
+        </is>
+      </c>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3473673</t>
+        </is>
+      </c>
+      <c r="I15" s="8" t="inlineStr">
+        <is>
+          <t>This article examines the concept of ‘AI fairness’ for people with disabilities from the perspective of data protection and equality law. This examination demonstrates that there is a need for a distinctive approach to AI fairness that is fundamentally different to that used for other protected characteristics, due to the different ways in which discrimination and data protection law applies in respect of Disability. We articulate this new agenda for AI fairness for people with disabilities, explaining how combining data protection and equality law creates new opportunities for disabled people's organisations and assistive technology researchers alike to shape the use of AI, as well as to challenge potential harmful uses.</t>
+        </is>
+      </c>
+      <c r="J15" s="8" t="inlineStr">
+        <is>
+          <t>No full text available — passed through</t>
+        </is>
+      </c>
+      <c r="K15" s="8" t="inlineStr">
+        <is>
+          <t>Commentary/Editorial</t>
+        </is>
+      </c>
+      <c r="L15" s="8" t="inlineStr">
+        <is>
+          <t>Generative AI</t>
+        </is>
+      </c>
+      <c r="M15" s="8" t="inlineStr">
+        <is>
+          <t>ICU/Critical Care</t>
+        </is>
+      </c>
+      <c r="N15" s="8" t="inlineStr">
+        <is>
+          <t>Gender/Sex; Age; Disability</t>
+        </is>
+      </c>
+      <c r="O15" s="8" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="P15" s="8" t="inlineStr">
+        <is>
+          <t>Assessment</t>
+        </is>
+      </c>
+      <c r="Q15" s="8" t="inlineStr">
+        <is>
+          <t>Explainability/Interpretability</t>
+        </is>
+      </c>
+      <c r="R15" s="8" t="inlineStr">
+        <is>
+          <t>ICU</t>
+        </is>
+      </c>
+      <c r="S15" s="8" t="inlineStr">
+        <is>
+          <t>This examination demonstrates that there is a need for a distinctive approach to AI fairness that is fundamentally different to that used for other protected characteristics, due to the different ways in which discrimination and data protection law applies in respect of Disability. We articulate this new agenda for AI fairness for people with disabilities, explaining how combining data protection and equality law creates new opportunities for disabled people's organisations and assistive technol...</t>
+        </is>
+      </c>
+      <c r="T15" s="8" t="inlineStr">
+        <is>
+          <t>Perspective (graphical); Data Protection Act 1998; Law and economics; Political science; Sociology; Psychology; Law; Computer science; Artificial intelligence</t>
+        </is>
+      </c>
+      <c r="U15" s="8" t="inlineStr">
+        <is>
+          <t>preprint</t>
+        </is>
+      </c>
+      <c r="V15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>10.1145/3386295</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr">
+        <is>
+          <t>An Extensive Study on Cross-Dataset Bias and Evaluation Metrics Interpretation for Machine Learning Applied to Gastrointestinal Tract Abnormality Classification</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr">
+        <is>
+          <t>Vajira Thambawita et al.</t>
+        </is>
+      </c>
+      <c r="E16" s="7" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F16" s="7" t="inlineStr">
+        <is>
+          <t>ACM Transactions on Computing for Healthcare</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr">
+        <is>
+          <t>10.1145/3386295</t>
+        </is>
+      </c>
+      <c r="H16" s="7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3386295</t>
+        </is>
+      </c>
+      <c r="I16" s="7" t="inlineStr">
+        <is>
+          <t>Precise and efficient automated identification of gastrointestinal (GI) tract diseases can help doctors treat more patients and improve the rate of disease detection and identification. Currently, automatic analysis of diseases in the GI tract is a hot topic in both computer science and medical-related journals. Nevertheless, the evaluation of such an automatic analysis is often incomplete or simply wrong. Algorithms are often only tested on small and biased datasets, and cross-dataset evaluations are rarely performed. A clear understanding of evaluation metrics and machine learning models with cross datasets is crucial to bring research in the field to a new quality level. Toward this goal, we present comprehensive evaluations of five distinct machine learning models using global features and deep neural networks that can classify 16 different key types of GI tract conditions, including pathological findings, anatomical landmarks, polyp removal conditions, and normal findings from images captured by common GI tract examination instruments. In our evaluation, we introduce performance hexagons using six performance metrics, such as recall, precision, specificity, accuracy, F1-score, and the Matthews correlation coefficient to demonstrate how to determine the real capabilities of models rather than evaluating them shallowly. Furthermore, we perform cross-dataset evaluations using different datasets for training and testing. With these cross-dataset evaluations, we demonstrate the challenge of actually building a generalizable model that could be used across different hospitals. Our experiments clearly show that more sophisticated performance metrics and evaluation methods need to be applied to get reliable models rather than depending on evaluations of the splits of the same dataset—that is, the performance metrics should always be interpreted together rather than relying on a single metric.</t>
+        </is>
+      </c>
+      <c r="J16" s="7" t="inlineStr">
+        <is>
+          <t>No full text available — passed through</t>
+        </is>
+      </c>
+      <c r="K16" s="7" t="inlineStr">
+        <is>
+          <t>Methodology</t>
+        </is>
+      </c>
+      <c r="L16" s="7" t="inlineStr">
+        <is>
+          <t>Deep Learning; Neural Network</t>
+        </is>
+      </c>
+      <c r="M16" s="7" t="inlineStr">
+        <is>
+          <t>General Healthcare</t>
+        </is>
+      </c>
+      <c r="N16" s="7" t="inlineStr">
+        <is>
+          <t>Gender/Sex; Age</t>
+        </is>
+      </c>
+      <c r="O16" s="7" t="inlineStr">
+        <is>
+          <t>Model Evaluation</t>
+        </is>
+      </c>
+      <c r="P16" s="7" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="Q16" s="7" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="R16" s="7" t="inlineStr">
+        <is>
+          <t>Hospital/Inpatient</t>
+        </is>
+      </c>
+      <c r="S16" s="7" t="inlineStr">
+        <is>
+          <t>With these cross-dataset evaluations, we demonstrate the challenge of actually building a generalizable model that could be used across different hospitals. Our experiments clearly show that more sophisticated performance metrics and evaluation methods need to be applied to get reliable models rather than depending on evaluations of the splits of the same dataset—that is, the performance metrics should always be interpreted together rather than relying on a single metric.</t>
+        </is>
+      </c>
+      <c r="T16" s="7" t="inlineStr">
+        <is>
+          <t>Computer science; Artificial intelligence; Machine learning; Identification (biology); Precision and recall; Abnormality; Field (mathematics); F1 score; Deep learning; Data mining; Cross-validation; Pattern recognition (psychology); Medicine; Mathematics</t>
+        </is>
+      </c>
+      <c r="U16" s="7" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="V16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>10.1145/3386296.3386300</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>Artificial intelligence fairness in the context of accessibility research on intelligent systems for people who are deaf or hard of hearing</t>
+        </is>
+      </c>
+      <c r="D17" s="8" t="inlineStr">
+        <is>
+          <t>Sushant Kafle et al.</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>ACM SIGACCESS Accessibility and Computing</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>10.1145/3386296.3386300</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3386296.3386300</t>
+        </is>
+      </c>
+      <c r="I17" s="8" t="inlineStr">
+        <is>
+          <t>We discuss issues of Artificial Intelligence (AI) fairness for people with disabilities, with examples drawn from our research on HCI for AI-based systems for people who are Deaf or Hard of Hearing (DHH). In particular, we discuss the need for inclusion of data from people with disabilities in training sets, the lack of interpretability of AI systems, ethical responsibilities of access technology researchers and companies, the need for appropriate evaluation metrics for AI-based access technologies (to determine if they are ready to be deployed and if they can be trusted by users), and the ways in which AI systems influence human behavior and influence the set of abilities needed by users to successfully interact with computing systems.</t>
+        </is>
+      </c>
+      <c r="J17" s="8" t="inlineStr">
+        <is>
+          <t>No full text available — passed through</t>
+        </is>
+      </c>
+      <c r="K17" s="8" t="inlineStr">
+        <is>
+          <t>Empirical Study</t>
+        </is>
+      </c>
+      <c r="L17" s="8" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="M17" s="8" t="inlineStr">
+        <is>
+          <t>ICU/Critical Care</t>
+        </is>
+      </c>
+      <c r="N17" s="8" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="O17" s="8" t="inlineStr">
+        <is>
+          <t>Model Evaluation</t>
+        </is>
+      </c>
+      <c r="P17" s="8" t="inlineStr">
+        <is>
+          <t>Assessment</t>
+        </is>
+      </c>
+      <c r="Q17" s="8" t="inlineStr">
+        <is>
+          <t>Explainability/Interpretability</t>
+        </is>
+      </c>
+      <c r="R17" s="8" t="inlineStr">
+        <is>
+          <t>ICU</t>
+        </is>
+      </c>
+      <c r="S17" s="8" t="inlineStr">
+        <is>
+          <t>We discuss issues of Artificial Intelligence (AI) fairness for people with disabilities, with examples drawn from our research on HCI for AI-based systems for people who are Deaf or Hard of Hearing (DHH). In particular, we discuss the need for inclusion of data from people with disabilities in training sets, the lack of interpretability of AI systems, ethical responsibilities of access technology researchers and companies, the need for appropriate evaluation metrics for AI-based access technolog...</t>
+        </is>
+      </c>
+      <c r="T17" s="8" t="inlineStr">
+        <is>
+          <t>Interpretability; Computer science; Set (abstract data type); Inclusion (mineral); Context (archaeology); Human–computer interaction; Universal design; Knowledge management; Artificial intelligence; World Wide Web; Psychology; Social psychology</t>
+        </is>
+      </c>
+      <c r="U17" s="8" t="inlineStr">
+        <is>
+          <t>preprint</t>
+        </is>
+      </c>
+      <c r="V17" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1797,7 +2673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G428"/>
+  <dimension ref="A1:G420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1807,7 +2683,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="5" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
     <col width="65" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="35" customWidth="1" min="5" max="5"/>
@@ -1838,7 +2714,7 @@
       </c>
       <c r="E1" s="9" t="inlineStr">
         <is>
-          <t>Venue</t>
+          <t>Journal/Venue</t>
         </is>
       </c>
       <c r="F1" s="9" t="inlineStr">
@@ -2082,22 +2958,22 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3387166</t>
+          <t>10.1145/3490234</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>A Multidisciplinary Survey and Framework for Design and Evaluation of Explainable AI Systems</t>
+          <t>The Secondary Use of Electronic Health Records for Data Mining: Data Characteristics and Challenges</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr">
         <is>
-          <t>ACM Transactions on Interactive Intelligent Systems</t>
+          <t>ACM Computing Surveys</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr">
@@ -2107,7 +2983,7 @@
       </c>
       <c r="G8" s="7" t="inlineStr">
         <is>
-          <t>Not health-related</t>
+          <t>Bias/fairness not central topic</t>
         </is>
       </c>
     </row>
@@ -2119,22 +2995,22 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3490234</t>
+          <t>10.1145/3387166</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr">
         <is>
-          <t>The Secondary Use of Electronic Health Records for Data Mining: Data Characteristics and Challenges</t>
+          <t>A Multidisciplinary Survey and Framework for Design and Evaluation of Explainable AI Systems</t>
         </is>
       </c>
       <c r="D9" s="7" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E9" s="7" t="inlineStr">
         <is>
-          <t>ACM Computing Surveys</t>
+          <t>ACM Transactions on Interactive Intelligent Systems</t>
         </is>
       </c>
       <c r="F9" s="7" t="inlineStr">
@@ -2144,7 +3020,7 @@
       </c>
       <c r="G9" s="7" t="inlineStr">
         <is>
-          <t>Bias/fairness not central topic</t>
+          <t>Not health-related</t>
         </is>
       </c>
     </row>
@@ -2563,12 +3439,12 @@
       </c>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3637487</t>
+          <t>10.1145/3636509</t>
         </is>
       </c>
       <c r="C21" s="7" t="inlineStr">
         <is>
-          <t>Explainable AI for Medical Data: Current Methods, Limitations, and Future Directions</t>
+          <t>Against Predictive Optimization: On the Legitimacy of Decision-making Algorithms That Optimize Predictive Accuracy</t>
         </is>
       </c>
       <c r="D21" s="7" t="inlineStr">
@@ -2578,7 +3454,7 @@
       </c>
       <c r="E21" s="7" t="inlineStr">
         <is>
-          <t>ACM Computing Surveys</t>
+          <t>ACM Journal on Responsible Computing</t>
         </is>
       </c>
       <c r="F21" s="7" t="inlineStr">
@@ -2600,12 +3476,12 @@
       </c>
       <c r="B22" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3636509</t>
+          <t>10.1145/3637487</t>
         </is>
       </c>
       <c r="C22" s="7" t="inlineStr">
         <is>
-          <t>Against Predictive Optimization: On the Legitimacy of Decision-making Algorithms That Optimize Predictive Accuracy</t>
+          <t>Explainable AI for Medical Data: Current Methods, Limitations, and Future Directions</t>
         </is>
       </c>
       <c r="D22" s="7" t="inlineStr">
@@ -2615,7 +3491,7 @@
       </c>
       <c r="E22" s="7" t="inlineStr">
         <is>
-          <t>ACM Journal on Responsible Computing</t>
+          <t>ACM Computing Surveys</t>
         </is>
       </c>
       <c r="F22" s="7" t="inlineStr">
@@ -2822,12 +3698,12 @@
       </c>
       <c r="B28" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3577011</t>
+          <t>10.1145/3569485</t>
         </is>
       </c>
       <c r="C28" s="7" t="inlineStr">
         <is>
-          <t>Improving Workflow Integration with xPath: Design and Evaluation of a Human-AI Diagnosis System in Pathology</t>
+          <t>GLOBEM</t>
         </is>
       </c>
       <c r="D28" s="7" t="inlineStr">
@@ -2837,7 +3713,7 @@
       </c>
       <c r="E28" s="7" t="inlineStr">
         <is>
-          <t>ACM Transactions on Computer-Human Interaction</t>
+          <t>Proceedings of the ACM on Interactive Mobile Wearable and Ubiquitous Technologies</t>
         </is>
       </c>
       <c r="F28" s="7" t="inlineStr">
@@ -2847,7 +3723,7 @@
       </c>
       <c r="G28" s="7" t="inlineStr">
         <is>
-          <t>No AI/ML component</t>
+          <t>Not health-related</t>
         </is>
       </c>
     </row>
@@ -2859,22 +3735,22 @@
       </c>
       <c r="B29" s="7" t="inlineStr">
         <is>
-          <t>10.1145/2871196</t>
+          <t>10.1145/3577011</t>
         </is>
       </c>
       <c r="C29" s="7" t="inlineStr">
         <is>
-          <t>The Ethics of Computing</t>
+          <t>Improving Workflow Integration with xPath: Design and Evaluation of a Human-AI Diagnosis System in Pathology</t>
         </is>
       </c>
       <c r="D29" s="7" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E29" s="7" t="inlineStr">
         <is>
-          <t>ACM Computing Surveys</t>
+          <t>ACM Transactions on Computer-Human Interaction</t>
         </is>
       </c>
       <c r="F29" s="7" t="inlineStr">
@@ -2896,22 +3772,22 @@
       </c>
       <c r="B30" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3592616</t>
+          <t>10.1145/2871196</t>
         </is>
       </c>
       <c r="C30" s="7" t="inlineStr">
         <is>
-          <t>A Survey of Data Quality Requirements That Matter in ML Development Pipelines</t>
+          <t>The Ethics of Computing</t>
         </is>
       </c>
       <c r="D30" s="7" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E30" s="7" t="inlineStr">
         <is>
-          <t>Journal of Data and Information Quality</t>
+          <t>ACM Computing Surveys</t>
         </is>
       </c>
       <c r="F30" s="7" t="inlineStr">
@@ -2921,7 +3797,7 @@
       </c>
       <c r="G30" s="7" t="inlineStr">
         <is>
-          <t>Bias/fairness not central topic</t>
+          <t>No AI/ML component</t>
         </is>
       </c>
     </row>
@@ -2933,22 +3809,22 @@
       </c>
       <c r="B31" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3569485</t>
+          <t>10.1145/3610218</t>
         </is>
       </c>
       <c r="C31" s="7" t="inlineStr">
         <is>
-          <t>GLOBEM</t>
+          <t>Understanding the Effect of Counterfactual Explanations on Trust and Reliance on AI for Human-AI Collaborative Clinical Decision Making</t>
         </is>
       </c>
       <c r="D31" s="7" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E31" s="7" t="inlineStr">
         <is>
-          <t>Proceedings of the ACM on Interactive Mobile Wearable and Ubiquitous Technologies</t>
+          <t>Proceedings of the ACM on Human-Computer Interaction</t>
         </is>
       </c>
       <c r="F31" s="7" t="inlineStr">
@@ -2958,7 +3834,7 @@
       </c>
       <c r="G31" s="7" t="inlineStr">
         <is>
-          <t>Not health-related</t>
+          <t>Bias/fairness not central topic</t>
         </is>
       </c>
     </row>
@@ -2970,12 +3846,12 @@
       </c>
       <c r="B32" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3610218</t>
+          <t>10.1145/3592616</t>
         </is>
       </c>
       <c r="C32" s="7" t="inlineStr">
         <is>
-          <t>Understanding the Effect of Counterfactual Explanations on Trust and Reliance on AI for Human-AI Collaborative Clinical Decision Making</t>
+          <t>A Survey of Data Quality Requirements That Matter in ML Development Pipelines</t>
         </is>
       </c>
       <c r="D32" s="7" t="inlineStr">
@@ -2985,7 +3861,7 @@
       </c>
       <c r="E32" s="7" t="inlineStr">
         <is>
-          <t>Proceedings of the ACM on Human-Computer Interaction</t>
+          <t>Journal of Data and Information Quality</t>
         </is>
       </c>
       <c r="F32" s="7" t="inlineStr">
@@ -3044,22 +3920,22 @@
       </c>
       <c r="B34" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3599974</t>
+          <t>10.1145/3649468</t>
         </is>
       </c>
       <c r="C34" s="7" t="inlineStr">
         <is>
-          <t>The Role of Explainable AI in the Research Field of AI Ethics</t>
+          <t>Envisioning Information Access Systems: What Makes for Good Tools and a Healthy Web?</t>
         </is>
       </c>
       <c r="D34" s="7" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E34" s="7" t="inlineStr">
         <is>
-          <t>ACM Transactions on Interactive Intelligent Systems</t>
+          <t>ACM Transactions on the Web</t>
         </is>
       </c>
       <c r="F34" s="7" t="inlineStr">
@@ -3069,7 +3945,7 @@
       </c>
       <c r="G34" s="7" t="inlineStr">
         <is>
-          <t>Not health-related</t>
+          <t>Bias/fairness not central topic</t>
         </is>
       </c>
     </row>
@@ -3081,22 +3957,22 @@
       </c>
       <c r="B35" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3649468</t>
+          <t>10.1145/3599974</t>
         </is>
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
-          <t>Envisioning Information Access Systems: What Makes for Good Tools and a Healthy Web?</t>
+          <t>The Role of Explainable AI in the Research Field of AI Ethics</t>
         </is>
       </c>
       <c r="D35" s="7" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E35" s="7" t="inlineStr">
         <is>
-          <t>ACM Transactions on the Web</t>
+          <t>ACM Transactions on Interactive Intelligent Systems</t>
         </is>
       </c>
       <c r="F35" s="7" t="inlineStr">
@@ -3106,7 +3982,7 @@
       </c>
       <c r="G35" s="7" t="inlineStr">
         <is>
-          <t>Bias/fairness not central topic</t>
+          <t>Not health-related</t>
         </is>
       </c>
     </row>
@@ -3118,17 +3994,17 @@
       </c>
       <c r="B36" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3476049</t>
+          <t>10.1145/3555531</t>
         </is>
       </c>
       <c r="C36" s="7" t="inlineStr">
         <is>
-          <t>Data Subjects' Conceptualizations of and Attitudes Toward Automatic Emotion Recognition-Enabled Wellbeing Interventions on Social Media</t>
+          <t>Burnout and the Quantified Workplace: Tensions around Personal Sensing Interventions for Stress in Resident Physicians</t>
         </is>
       </c>
       <c r="D36" s="7" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E36" s="7" t="inlineStr">
@@ -3143,7 +4019,7 @@
       </c>
       <c r="G36" s="7" t="inlineStr">
         <is>
-          <t>Bias/fairness not central topic</t>
+          <t>No AI/ML component</t>
         </is>
       </c>
     </row>
@@ -3155,17 +4031,17 @@
       </c>
       <c r="B37" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3555531</t>
+          <t>10.1145/3476049</t>
         </is>
       </c>
       <c r="C37" s="7" t="inlineStr">
         <is>
-          <t>Burnout and the Quantified Workplace: Tensions around Personal Sensing Interventions for Stress in Resident Physicians</t>
+          <t>Data Subjects' Conceptualizations of and Attitudes Toward Automatic Emotion Recognition-Enabled Wellbeing Interventions on Social Media</t>
         </is>
       </c>
       <c r="D37" s="7" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E37" s="7" t="inlineStr">
@@ -3180,7 +4056,7 @@
       </c>
       <c r="G37" s="7" t="inlineStr">
         <is>
-          <t>No AI/ML component</t>
+          <t>Bias/fairness not central topic</t>
         </is>
       </c>
     </row>
@@ -3192,22 +4068,22 @@
       </c>
       <c r="B38" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3659099</t>
+          <t>10.1145/3610107</t>
         </is>
       </c>
       <c r="C38" s="7" t="inlineStr">
         <is>
-          <t>Blockchained Federated Learning for Internet of Things: A Comprehensive Survey</t>
+          <t>AI Consent Futures: A Case Study on Voice Data Collection with Clinicians</t>
         </is>
       </c>
       <c r="D38" s="7" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E38" s="7" t="inlineStr">
         <is>
-          <t>ACM Computing Surveys</t>
+          <t>Proceedings of the ACM on Human-Computer Interaction</t>
         </is>
       </c>
       <c r="F38" s="7" t="inlineStr">
@@ -3217,7 +4093,7 @@
       </c>
       <c r="G38" s="7" t="inlineStr">
         <is>
-          <t>Bias/fairness not central topic</t>
+          <t>No AI/ML component</t>
         </is>
       </c>
     </row>
@@ -3229,22 +4105,22 @@
       </c>
       <c r="B39" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3610107</t>
+          <t>10.1145/3659099</t>
         </is>
       </c>
       <c r="C39" s="7" t="inlineStr">
         <is>
-          <t>AI Consent Futures: A Case Study on Voice Data Collection with Clinicians</t>
+          <t>Blockchained Federated Learning for Internet of Things: A Comprehensive Survey</t>
         </is>
       </c>
       <c r="D39" s="7" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E39" s="7" t="inlineStr">
         <is>
-          <t>Proceedings of the ACM on Human-Computer Interaction</t>
+          <t>ACM Computing Surveys</t>
         </is>
       </c>
       <c r="F39" s="7" t="inlineStr">
@@ -3254,7 +4130,7 @@
       </c>
       <c r="G39" s="7" t="inlineStr">
         <is>
-          <t>No AI/ML component</t>
+          <t>Bias/fairness not central topic</t>
         </is>
       </c>
     </row>
@@ -3303,12 +4179,12 @@
       </c>
       <c r="B41" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3579612</t>
+          <t>10.1145/3632120</t>
         </is>
       </c>
       <c r="C41" s="7" t="inlineStr">
         <is>
-          <t>Improving Human-AI Collaboration With Descriptions of AI Behavior</t>
+          <t>Which Skin Tone Measures Are the Most Inclusive? An Investigation of Skin Tone Measures for Artificial Intelligence</t>
         </is>
       </c>
       <c r="D41" s="7" t="inlineStr">
@@ -3318,7 +4194,7 @@
       </c>
       <c r="E41" s="7" t="inlineStr">
         <is>
-          <t>Proceedings of the ACM on Human-Computer Interaction</t>
+          <t>ACM Journal on Responsible Computing</t>
         </is>
       </c>
       <c r="F41" s="7" t="inlineStr">
@@ -3340,12 +4216,12 @@
       </c>
       <c r="B42" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3632120</t>
+          <t>10.1145/3579612</t>
         </is>
       </c>
       <c r="C42" s="7" t="inlineStr">
         <is>
-          <t>Which Skin Tone Measures Are the Most Inclusive? An Investigation of Skin Tone Measures for Artificial Intelligence</t>
+          <t>Improving Human-AI Collaboration With Descriptions of AI Behavior</t>
         </is>
       </c>
       <c r="D42" s="7" t="inlineStr">
@@ -3355,7 +4231,7 @@
       </c>
       <c r="E42" s="7" t="inlineStr">
         <is>
-          <t>ACM Journal on Responsible Computing</t>
+          <t>Proceedings of the ACM on Human-Computer Interaction</t>
         </is>
       </c>
       <c r="F42" s="7" t="inlineStr">
@@ -3451,12 +4327,12 @@
       </c>
       <c r="B45" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3610206</t>
+          <t>10.1145/3614425</t>
         </is>
       </c>
       <c r="C45" s="7" t="inlineStr">
         <is>
-          <t>Selective Explanations: Leveraging Human Input to Align Explainable AI</t>
+          <t>Non-imaging Medical Data Synthesis for Trustworthy AI: A Comprehensive Survey</t>
         </is>
       </c>
       <c r="D45" s="7" t="inlineStr">
@@ -3466,7 +4342,7 @@
       </c>
       <c r="E45" s="7" t="inlineStr">
         <is>
-          <t>Proceedings of the ACM on Human-Computer Interaction</t>
+          <t>ACM Computing Surveys</t>
         </is>
       </c>
       <c r="F45" s="7" t="inlineStr">
@@ -3476,7 +4352,7 @@
       </c>
       <c r="G45" s="7" t="inlineStr">
         <is>
-          <t>Not health-related</t>
+          <t>Bias/fairness not central topic</t>
         </is>
       </c>
     </row>
@@ -3488,12 +4364,12 @@
       </c>
       <c r="B46" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3614425</t>
+          <t>10.1145/3610206</t>
         </is>
       </c>
       <c r="C46" s="7" t="inlineStr">
         <is>
-          <t>Non-imaging Medical Data Synthesis for Trustworthy AI: A Comprehensive Survey</t>
+          <t>Selective Explanations: Leveraging Human Input to Align Explainable AI</t>
         </is>
       </c>
       <c r="D46" s="7" t="inlineStr">
@@ -3503,7 +4379,7 @@
       </c>
       <c r="E46" s="7" t="inlineStr">
         <is>
-          <t>ACM Computing Surveys</t>
+          <t>Proceedings of the ACM on Human-Computer Interaction</t>
         </is>
       </c>
       <c r="F46" s="7" t="inlineStr">
@@ -3513,7 +4389,7 @@
       </c>
       <c r="G46" s="7" t="inlineStr">
         <is>
-          <t>Bias/fairness not central topic</t>
+          <t>Not health-related</t>
         </is>
       </c>
     </row>
@@ -4302,22 +5178,22 @@
       </c>
       <c r="B68" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3448096</t>
+          <t>10.1145/3555155</t>
         </is>
       </c>
       <c r="C68" s="7" t="inlineStr">
         <is>
-          <t>11 Years with Wearables</t>
+          <t>"Money Doesn't Buy You Happiness": Negative Consequences of Using the Freemium Model for Mental Health Apps</t>
         </is>
       </c>
       <c r="D68" s="7" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E68" s="7" t="inlineStr">
         <is>
-          <t>Proceedings of the ACM on Interactive Mobile Wearable and Ubiquitous Technologies</t>
+          <t>Proceedings of the ACM on Human-Computer Interaction</t>
         </is>
       </c>
       <c r="F68" s="7" t="inlineStr">
@@ -4327,7 +5203,7 @@
       </c>
       <c r="G68" s="7" t="inlineStr">
         <is>
-          <t>Bias/fairness not central topic</t>
+          <t>No AI/ML component</t>
         </is>
       </c>
     </row>
@@ -4339,22 +5215,22 @@
       </c>
       <c r="B69" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3555155</t>
+          <t>10.1145/3448096</t>
         </is>
       </c>
       <c r="C69" s="7" t="inlineStr">
         <is>
-          <t>"Money Doesn't Buy You Happiness": Negative Consequences of Using the Freemium Model for Mental Health Apps</t>
+          <t>11 Years with Wearables</t>
         </is>
       </c>
       <c r="D69" s="7" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E69" s="7" t="inlineStr">
         <is>
-          <t>Proceedings of the ACM on Human-Computer Interaction</t>
+          <t>Proceedings of the ACM on Interactive Mobile Wearable and Ubiquitous Technologies</t>
         </is>
       </c>
       <c r="F69" s="7" t="inlineStr">
@@ -4364,7 +5240,7 @@
       </c>
       <c r="G69" s="7" t="inlineStr">
         <is>
-          <t>No AI/ML component</t>
+          <t>Bias/fairness not central topic</t>
         </is>
       </c>
     </row>
@@ -5227,22 +6103,22 @@
       </c>
       <c r="B93" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3654660</t>
+          <t>10.1145/3617127</t>
         </is>
       </c>
       <c r="C93" s="7" t="inlineStr">
         <is>
-          <t>Computational Politeness in Natural Language Processing: A Survey</t>
+          <t>Recruitment Promotion via Twitter: A Network-centric Approach of Analyzing Community Engagement Using Social Identity</t>
         </is>
       </c>
       <c r="D93" s="7" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E93" s="7" t="inlineStr">
         <is>
-          <t>ACM Computing Surveys</t>
+          <t>Digital Government Research and Practice</t>
         </is>
       </c>
       <c r="F93" s="7" t="inlineStr">
@@ -5252,7 +6128,7 @@
       </c>
       <c r="G93" s="7" t="inlineStr">
         <is>
-          <t>Not health-related</t>
+          <t>No AI/ML component</t>
         </is>
       </c>
     </row>
@@ -5264,12 +6140,12 @@
       </c>
       <c r="B94" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3617127</t>
+          <t>10.1145/3625238</t>
         </is>
       </c>
       <c r="C94" s="7" t="inlineStr">
         <is>
-          <t>Recruitment Promotion via Twitter: A Network-centric Approach of Analyzing Community Engagement Using Social Identity</t>
+          <t>Exploring Structure Incentive Domain Adversarial Learning for Generalizable Sleep Stage Classification</t>
         </is>
       </c>
       <c r="D94" s="7" t="inlineStr">
@@ -5279,7 +6155,7 @@
       </c>
       <c r="E94" s="7" t="inlineStr">
         <is>
-          <t>Digital Government Research and Practice</t>
+          <t>ACM Transactions on Intelligent Systems and Technology</t>
         </is>
       </c>
       <c r="F94" s="7" t="inlineStr">
@@ -5289,7 +6165,7 @@
       </c>
       <c r="G94" s="7" t="inlineStr">
         <is>
-          <t>No AI/ML component</t>
+          <t>Bias/fairness not central topic</t>
         </is>
       </c>
     </row>
@@ -5301,22 +6177,22 @@
       </c>
       <c r="B95" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3447954</t>
+          <t>10.1145/3654660</t>
         </is>
       </c>
       <c r="C95" s="7" t="inlineStr">
         <is>
-          <t>Why Real Citizens Would Turn to Artificial Leaders</t>
+          <t>Computational Politeness in Natural Language Processing: A Survey</t>
         </is>
       </c>
       <c r="D95" s="7" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E95" s="7" t="inlineStr">
         <is>
-          <t>Digital Government Research and Practice</t>
+          <t>ACM Computing Surveys</t>
         </is>
       </c>
       <c r="F95" s="7" t="inlineStr">
@@ -5326,7 +6202,7 @@
       </c>
       <c r="G95" s="7" t="inlineStr">
         <is>
-          <t>Bias/fairness not central topic</t>
+          <t>Not health-related</t>
         </is>
       </c>
     </row>
@@ -5338,22 +6214,22 @@
       </c>
       <c r="B96" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3625238</t>
+          <t>10.1145/3447954</t>
         </is>
       </c>
       <c r="C96" s="7" t="inlineStr">
         <is>
-          <t>Exploring Structure Incentive Domain Adversarial Learning for Generalizable Sleep Stage Classification</t>
+          <t>Why Real Citizens Would Turn to Artificial Leaders</t>
         </is>
       </c>
       <c r="D96" s="7" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E96" s="7" t="inlineStr">
         <is>
-          <t>ACM Transactions on Intelligent Systems and Technology</t>
+          <t>Digital Government Research and Practice</t>
         </is>
       </c>
       <c r="F96" s="7" t="inlineStr">
@@ -6115,22 +6991,22 @@
       </c>
       <c r="B117" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3542921</t>
+          <t>10.1145/3274324</t>
         </is>
       </c>
       <c r="C117" s="7" t="inlineStr">
         <is>
-          <t>What Did My AI Learn? How Data Scientists Make Sense of Model Behavior</t>
+          <t>To Label or Not to Label</t>
         </is>
       </c>
       <c r="D117" s="7" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E117" s="7" t="inlineStr">
         <is>
-          <t>ACM Transactions on Computer-Human Interaction</t>
+          <t>Proceedings of the ACM on Human-Computer Interaction</t>
         </is>
       </c>
       <c r="F117" s="7" t="inlineStr">
@@ -6152,22 +7028,22 @@
       </c>
       <c r="B118" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3274324</t>
+          <t>10.1145/3542921</t>
         </is>
       </c>
       <c r="C118" s="7" t="inlineStr">
         <is>
-          <t>To Label or Not to Label</t>
+          <t>What Did My AI Learn? How Data Scientists Make Sense of Model Behavior</t>
         </is>
       </c>
       <c r="D118" s="7" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E118" s="7" t="inlineStr">
         <is>
-          <t>Proceedings of the ACM on Human-Computer Interaction</t>
+          <t>ACM Transactions on Computer-Human Interaction</t>
         </is>
       </c>
       <c r="F118" s="7" t="inlineStr">
@@ -9260,12 +10136,12 @@
       </c>
       <c r="B202" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3610072</t>
+          <t>10.1145/3597199</t>
         </is>
       </c>
       <c r="C202" s="7" t="inlineStr">
         <is>
-          <t>Investigating AI Teammate Communication Strategies and Their Impact in Human-AI Teams for Effective Teamwork</t>
+          <t>What-is and How-to for Fairness in Machine Learning: A Survey, Reflection, and Perspective</t>
         </is>
       </c>
       <c r="D202" s="7" t="inlineStr">
@@ -9275,7 +10151,7 @@
       </c>
       <c r="E202" s="7" t="inlineStr">
         <is>
-          <t>Proceedings of the ACM on Human-Computer Interaction</t>
+          <t>ACM Computing Surveys</t>
         </is>
       </c>
       <c r="F202" s="7" t="inlineStr">
@@ -9297,12 +10173,12 @@
       </c>
       <c r="B203" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3597199</t>
+          <t>10.1145/3610072</t>
         </is>
       </c>
       <c r="C203" s="7" t="inlineStr">
         <is>
-          <t>What-is and How-to for Fairness in Machine Learning: A Survey, Reflection, and Perspective</t>
+          <t>Investigating AI Teammate Communication Strategies and Their Impact in Human-AI Teams for Effective Teamwork</t>
         </is>
       </c>
       <c r="D203" s="7" t="inlineStr">
@@ -9312,7 +10188,7 @@
       </c>
       <c r="E203" s="7" t="inlineStr">
         <is>
-          <t>ACM Computing Surveys</t>
+          <t>Proceedings of the ACM on Human-Computer Interaction</t>
         </is>
       </c>
       <c r="F203" s="7" t="inlineStr">
@@ -9593,22 +10469,22 @@
       </c>
       <c r="B211" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3589784</t>
+          <t>10.1145/3415172</t>
         </is>
       </c>
       <c r="C211" s="7" t="inlineStr">
         <is>
-          <t>Detecting Mental Distresses Using Social Behavior Analysis in the Context of COVID-19: A Survey</t>
+          <t>Informational Friction as a Lens for Studying Algorithmic Aspects of Privacy</t>
         </is>
       </c>
       <c r="D211" s="7" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E211" s="7" t="inlineStr">
         <is>
-          <t>ACM Computing Surveys</t>
+          <t>Proceedings of the ACM on Human-Computer Interaction</t>
         </is>
       </c>
       <c r="F211" s="7" t="inlineStr">
@@ -9618,7 +10494,7 @@
       </c>
       <c r="G211" s="7" t="inlineStr">
         <is>
-          <t>Bias/fairness not central topic</t>
+          <t>Not health-related</t>
         </is>
       </c>
     </row>
@@ -9630,12 +10506,12 @@
       </c>
       <c r="B212" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3610169</t>
+          <t>10.1145/3589784</t>
         </is>
       </c>
       <c r="C212" s="7" t="inlineStr">
         <is>
-          <t>"Honestly, I Think TikTok has a Vendetta Against Black Creators": Understanding Black Content Creator Experiences on TikTok</t>
+          <t>Detecting Mental Distresses Using Social Behavior Analysis in the Context of COVID-19: A Survey</t>
         </is>
       </c>
       <c r="D212" s="7" t="inlineStr">
@@ -9645,7 +10521,7 @@
       </c>
       <c r="E212" s="7" t="inlineStr">
         <is>
-          <t>Proceedings of the ACM on Human-Computer Interaction</t>
+          <t>ACM Computing Surveys</t>
         </is>
       </c>
       <c r="F212" s="7" t="inlineStr">
@@ -9655,7 +10531,7 @@
       </c>
       <c r="G212" s="7" t="inlineStr">
         <is>
-          <t>Not health-related</t>
+          <t>Bias/fairness not central topic</t>
         </is>
       </c>
     </row>
@@ -9667,17 +10543,17 @@
       </c>
       <c r="B213" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3415172</t>
+          <t>10.1145/3610169</t>
         </is>
       </c>
       <c r="C213" s="7" t="inlineStr">
         <is>
-          <t>Informational Friction as a Lens for Studying Algorithmic Aspects of Privacy</t>
+          <t>"Honestly, I Think TikTok has a Vendetta Against Black Creators": Understanding Black Content Creator Experiences on TikTok</t>
         </is>
       </c>
       <c r="D213" s="7" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E213" s="7" t="inlineStr">
@@ -10333,22 +11209,22 @@
       </c>
       <c r="B231" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3283070</t>
+          <t>10.1145/3643857</t>
         </is>
       </c>
       <c r="C231" s="7" t="inlineStr">
         <is>
-          <t>Identifying Pathways to Computer Science</t>
+          <t>Overcoming Diverse Undesired Effects in Recommender Systems: A Deontological Approach</t>
         </is>
       </c>
       <c r="D231" s="7" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E231" s="7" t="inlineStr">
         <is>
-          <t>ACM Transactions on Computing Education</t>
+          <t>ACM Transactions on Intelligent Systems and Technology</t>
         </is>
       </c>
       <c r="F231" s="7" t="inlineStr">
@@ -10358,7 +11234,7 @@
       </c>
       <c r="G231" s="7" t="inlineStr">
         <is>
-          <t>No AI/ML component</t>
+          <t>Not health-related</t>
         </is>
       </c>
     </row>
@@ -10370,22 +11246,22 @@
       </c>
       <c r="B232" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3643857</t>
+          <t>10.1145/3283070</t>
         </is>
       </c>
       <c r="C232" s="7" t="inlineStr">
         <is>
-          <t>Overcoming Diverse Undesired Effects in Recommender Systems: A Deontological Approach</t>
+          <t>Identifying Pathways to Computer Science</t>
         </is>
       </c>
       <c r="D232" s="7" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E232" s="7" t="inlineStr">
         <is>
-          <t>ACM Transactions on Intelligent Systems and Technology</t>
+          <t>ACM Transactions on Computing Education</t>
         </is>
       </c>
       <c r="F232" s="7" t="inlineStr">
@@ -10395,7 +11271,7 @@
       </c>
       <c r="G232" s="7" t="inlineStr">
         <is>
-          <t>Not health-related</t>
+          <t>No AI/ML component</t>
         </is>
       </c>
     </row>
@@ -10555,22 +11431,22 @@
       </c>
       <c r="B237" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3637438</t>
+          <t>10.1145/3649312</t>
         </is>
       </c>
       <c r="C237" s="7" t="inlineStr">
         <is>
-          <t>Preserving the Fairness Guarantees of Classifiers in Changing Environments: A Survey</t>
+          <t>The Challenge of Data Analytics with Climate-neutral Urban Mobility (Vision Paper)</t>
         </is>
       </c>
       <c r="D237" s="7" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E237" s="7" t="inlineStr">
         <is>
-          <t>ACM Computing Surveys</t>
+          <t>ACM Transactions on Spatial Algorithms and Systems</t>
         </is>
       </c>
       <c r="F237" s="7" t="inlineStr">
@@ -10592,22 +11468,22 @@
       </c>
       <c r="B238" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3649312</t>
+          <t>10.1145/3637438</t>
         </is>
       </c>
       <c r="C238" s="7" t="inlineStr">
         <is>
-          <t>The Challenge of Data Analytics with Climate-neutral Urban Mobility (Vision Paper)</t>
+          <t>Preserving the Fairness Guarantees of Classifiers in Changing Environments: A Survey</t>
         </is>
       </c>
       <c r="D238" s="7" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E238" s="7" t="inlineStr">
         <is>
-          <t>ACM Transactions on Spatial Algorithms and Systems</t>
+          <t>ACM Computing Surveys</t>
         </is>
       </c>
       <c r="F238" s="7" t="inlineStr">
@@ -14432,22 +15308,22 @@
       </c>
       <c r="B342" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3380783</t>
+          <t>10.1145/3615862</t>
         </is>
       </c>
       <c r="C342" s="7" t="inlineStr">
         <is>
-          <t>Robot Errors in Proximate HRI</t>
+          <t>A Systematic Collection of Medical Image Datasets for Deep Learning</t>
         </is>
       </c>
       <c r="D342" s="7" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E342" s="7" t="inlineStr">
         <is>
-          <t>ACM Transactions on Human-Robot Interaction</t>
+          <t>ACM Computing Surveys</t>
         </is>
       </c>
       <c r="F342" s="7" t="inlineStr">
@@ -14457,7 +15333,7 @@
       </c>
       <c r="G342" s="7" t="inlineStr">
         <is>
-          <t>Not health-related</t>
+          <t>Bias/fairness not central topic</t>
         </is>
       </c>
     </row>
@@ -14469,22 +15345,22 @@
       </c>
       <c r="B343" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3615862</t>
+          <t>10.1145/3380783</t>
         </is>
       </c>
       <c r="C343" s="7" t="inlineStr">
         <is>
-          <t>A Systematic Collection of Medical Image Datasets for Deep Learning</t>
+          <t>Robot Errors in Proximate HRI</t>
         </is>
       </c>
       <c r="D343" s="7" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E343" s="7" t="inlineStr">
         <is>
-          <t>ACM Computing Surveys</t>
+          <t>ACM Transactions on Human-Robot Interaction</t>
         </is>
       </c>
       <c r="F343" s="7" t="inlineStr">
@@ -14494,7 +15370,7 @@
       </c>
       <c r="G343" s="7" t="inlineStr">
         <is>
-          <t>Bias/fairness not central topic</t>
+          <t>Not health-related</t>
         </is>
       </c>
     </row>
@@ -14654,22 +15530,22 @@
       </c>
       <c r="B348" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3451882</t>
+          <t>10.1145/1017583.1017597</t>
         </is>
       </c>
       <c r="C348" s="7" t="inlineStr">
         <is>
-          <t>Robot-Delivered Cognitive Stimulation Games for Older Adults</t>
+          <t>A DSS for diagnosis and therapy</t>
         </is>
       </c>
       <c r="D348" s="7" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>1977</t>
         </is>
       </c>
       <c r="E348" s="7" t="inlineStr">
         <is>
-          <t>ACM Transactions on Human-Robot Interaction</t>
+          <t>ACM SIGMIS Database the DATABASE for Advances in Information Systems</t>
         </is>
       </c>
       <c r="F348" s="7" t="inlineStr">
@@ -14691,22 +15567,22 @@
       </c>
       <c r="B349" s="7" t="inlineStr">
         <is>
-          <t>10.1145/1017583.1017597</t>
+          <t>10.1145/3451882</t>
         </is>
       </c>
       <c r="C349" s="7" t="inlineStr">
         <is>
-          <t>A DSS for diagnosis and therapy</t>
+          <t>Robot-Delivered Cognitive Stimulation Games for Older Adults</t>
         </is>
       </c>
       <c r="D349" s="7" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E349" s="7" t="inlineStr">
         <is>
-          <t>ACM SIGMIS Database the DATABASE for Advances in Information Systems</t>
+          <t>ACM Transactions on Human-Robot Interaction</t>
         </is>
       </c>
       <c r="F349" s="7" t="inlineStr">
@@ -14913,22 +15789,22 @@
       </c>
       <c r="B355" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3610170</t>
+          <t>10.1145/3577008</t>
         </is>
       </c>
       <c r="C355" s="7" t="inlineStr">
         <is>
-          <t>"I don't know how to help with that" - Learning from Limitations of Modern Conversational Agent Systems in Caregiving Networks</t>
+          <t>Me, My Health, and My Watch: How Children with ADHD Understand Smartwatch Health Data</t>
         </is>
       </c>
       <c r="D355" s="7" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E355" s="7" t="inlineStr">
         <is>
-          <t>Proceedings of the ACM on Human-Computer Interaction</t>
+          <t>ACM Transactions on Computer-Human Interaction</t>
         </is>
       </c>
       <c r="F355" s="7" t="inlineStr">
@@ -14950,22 +15826,22 @@
       </c>
       <c r="B356" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3577008</t>
+          <t>10.1145/3610170</t>
         </is>
       </c>
       <c r="C356" s="7" t="inlineStr">
         <is>
-          <t>Me, My Health, and My Watch: How Children with ADHD Understand Smartwatch Health Data</t>
+          <t>"I don't know how to help with that" - Learning from Limitations of Modern Conversational Agent Systems in Caregiving Networks</t>
         </is>
       </c>
       <c r="D356" s="7" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E356" s="7" t="inlineStr">
         <is>
-          <t>ACM Transactions on Computer-Human Interaction</t>
+          <t>Proceedings of the ACM on Human-Computer Interaction</t>
         </is>
       </c>
       <c r="F356" s="7" t="inlineStr">
@@ -15283,22 +16159,22 @@
       </c>
       <c r="B365" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3650040</t>
+          <t>10.1145/3379179</t>
         </is>
       </c>
       <c r="C365" s="7" t="inlineStr">
         <is>
-          <t>FedCMD: A Federated Cross-modal Knowledge Distillation for Drivers’ Emotion Recognition</t>
+          <t>Challenges in Designing a Fully Autonomous Socially Assistive Robot for People with Parkinson’s Disease</t>
         </is>
       </c>
       <c r="D365" s="7" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E365" s="7" t="inlineStr">
         <is>
-          <t>ACM Transactions on Intelligent Systems and Technology</t>
+          <t>ACM Transactions on Human-Robot Interaction</t>
         </is>
       </c>
       <c r="F365" s="7" t="inlineStr">
@@ -15320,22 +16196,22 @@
       </c>
       <c r="B366" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3379179</t>
+          <t>10.1145/3650040</t>
         </is>
       </c>
       <c r="C366" s="7" t="inlineStr">
         <is>
-          <t>Challenges in Designing a Fully Autonomous Socially Assistive Robot for People with Parkinson’s Disease</t>
+          <t>FedCMD: A Federated Cross-modal Knowledge Distillation for Drivers’ Emotion Recognition</t>
         </is>
       </c>
       <c r="D366" s="7" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E366" s="7" t="inlineStr">
         <is>
-          <t>ACM Transactions on Human-Robot Interaction</t>
+          <t>ACM Transactions on Intelligent Systems and Technology</t>
         </is>
       </c>
       <c r="F366" s="7" t="inlineStr">
@@ -15394,22 +16270,22 @@
       </c>
       <c r="B368" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3610060</t>
+          <t>10.1145/3351262</t>
         </is>
       </c>
       <c r="C368" s="7" t="inlineStr">
         <is>
-          <t>Evaluating Similarity Variables for Peer Matching in Digital Health Storytelling</t>
+          <t>Recruit Until It Fails</t>
         </is>
       </c>
       <c r="D368" s="7" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E368" s="7" t="inlineStr">
         <is>
-          <t>Proceedings of the ACM on Human-Computer Interaction</t>
+          <t>Proceedings of the ACM on Interactive Mobile Wearable and Ubiquitous Technologies</t>
         </is>
       </c>
       <c r="F368" s="7" t="inlineStr">
@@ -15419,7 +16295,7 @@
       </c>
       <c r="G368" s="7" t="inlineStr">
         <is>
-          <t>Bias/fairness not central topic</t>
+          <t>Not health-related</t>
         </is>
       </c>
     </row>
@@ -15431,22 +16307,22 @@
       </c>
       <c r="B369" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3351262</t>
+          <t>10.1145/3274316</t>
         </is>
       </c>
       <c r="C369" s="7" t="inlineStr">
         <is>
-          <t>Recruit Until It Fails</t>
+          <t>Shifting Expectations</t>
         </is>
       </c>
       <c r="D369" s="7" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E369" s="7" t="inlineStr">
         <is>
-          <t>Proceedings of the ACM on Interactive Mobile Wearable and Ubiquitous Technologies</t>
+          <t>Proceedings of the ACM on Human-Computer Interaction</t>
         </is>
       </c>
       <c r="F369" s="7" t="inlineStr">
@@ -15456,7 +16332,7 @@
       </c>
       <c r="G369" s="7" t="inlineStr">
         <is>
-          <t>Not health-related</t>
+          <t>No AI/ML component</t>
         </is>
       </c>
     </row>
@@ -15468,17 +16344,17 @@
       </c>
       <c r="B370" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3274316</t>
+          <t>10.1145/3610060</t>
         </is>
       </c>
       <c r="C370" s="7" t="inlineStr">
         <is>
-          <t>Shifting Expectations</t>
+          <t>Evaluating Similarity Variables for Peer Matching in Digital Health Storytelling</t>
         </is>
       </c>
       <c r="D370" s="7" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E370" s="7" t="inlineStr">
@@ -15493,7 +16369,7 @@
       </c>
       <c r="G370" s="7" t="inlineStr">
         <is>
-          <t>No AI/ML component</t>
+          <t>Bias/fairness not central topic</t>
         </is>
       </c>
     </row>
@@ -15875,12 +16751,12 @@
       </c>
       <c r="B381" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3564276</t>
+          <t>10.1145/3555771</t>
         </is>
       </c>
       <c r="C381" s="7" t="inlineStr">
         <is>
-          <t>A Human-in-the-Loop Segmented Mixed-Effects Modeling Method for Analyzing Wearables Data</t>
+          <t>Warm Solutions: Centering Nurse Contributions in Medical Making</t>
         </is>
       </c>
       <c r="D381" s="7" t="inlineStr">
@@ -15890,7 +16766,7 @@
       </c>
       <c r="E381" s="7" t="inlineStr">
         <is>
-          <t>ACM Transactions on Management Information Systems</t>
+          <t>Proceedings of the ACM on Human-Computer Interaction</t>
         </is>
       </c>
       <c r="F381" s="7" t="inlineStr">
@@ -15900,7 +16776,7 @@
       </c>
       <c r="G381" s="7" t="inlineStr">
         <is>
-          <t>Bias/fairness not central topic</t>
+          <t>No AI/ML component</t>
         </is>
       </c>
     </row>
@@ -15912,12 +16788,12 @@
       </c>
       <c r="B382" s="7" t="inlineStr">
         <is>
-          <t>10.1145/3555771</t>
+          <t>10.1145/3564276</t>
         </is>
       </c>
       <c r="C382" s="7" t="inlineStr">
         <is>
-          <t>Warm Solutions: Centering Nurse Contributions in Medical Making</t>
+          <t>A Human-in-the-Loop Segmented Mixed-Effects Modeling Method for Analyzing Wearables Data</t>
         </is>
       </c>
       <c r="D382" s="7" t="inlineStr">
@@ -15927,7 +16803,7 @@
       </c>
       <c r="E382" s="7" t="inlineStr">
         <is>
-          <t>Proceedings of the ACM on Human-Computer Interaction</t>
+          <t>ACM Transactions on Management Information Systems</t>
         </is>
       </c>
       <c r="F382" s="7" t="inlineStr">
@@ -15937,7 +16813,7 @@
       </c>
       <c r="G382" s="7" t="inlineStr">
         <is>
-          <t>No AI/ML component</t>
+          <t>Bias/fairness not central topic</t>
         </is>
       </c>
     </row>
@@ -17344,302 +18220,6 @@
       <c r="G420" s="7" t="inlineStr">
         <is>
           <t>Bias/fairness not central topic</t>
-        </is>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" s="7" t="inlineStr">
-        <is>
-          <t>420</t>
-        </is>
-      </c>
-      <c r="B421" s="7" t="inlineStr">
-        <is>
-          <t>10.1145/3609502</t>
-        </is>
-      </c>
-      <c r="C421" s="7" t="inlineStr">
-        <is>
-          <t>Bias in Reinforcement Learning: A Review in Healthcare Applications</t>
-        </is>
-      </c>
-      <c r="D421" s="7" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E421" s="7" t="inlineStr">
-        <is>
-          <t>ACM Computing Surveys</t>
-        </is>
-      </c>
-      <c r="F421" s="7" t="inlineStr">
-        <is>
-          <t>Full-Text</t>
-        </is>
-      </c>
-      <c r="G421" s="7" t="inlineStr">
-        <is>
-          <t>Excluded: insufficient approach content (0 indicators)</t>
-        </is>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="7" t="inlineStr">
-        <is>
-          <t>421</t>
-        </is>
-      </c>
-      <c r="B422" s="7" t="inlineStr">
-        <is>
-          <t>10.1145/3386295</t>
-        </is>
-      </c>
-      <c r="C422" s="7" t="inlineStr">
-        <is>
-          <t>An Extensive Study on Cross-Dataset Bias and Evaluation Metrics Interpretation for Machine Learning Applied to Gastrointestinal Tract Abnormality Classification</t>
-        </is>
-      </c>
-      <c r="D422" s="7" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E422" s="7" t="inlineStr">
-        <is>
-          <t>ACM Transactions on Computing for Healthcare</t>
-        </is>
-      </c>
-      <c r="F422" s="7" t="inlineStr">
-        <is>
-          <t>Full-Text</t>
-        </is>
-      </c>
-      <c r="G422" s="7" t="inlineStr">
-        <is>
-          <t>Excluded: insufficient approach content (0 indicators)</t>
-        </is>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" s="7" t="inlineStr">
-        <is>
-          <t>422</t>
-        </is>
-      </c>
-      <c r="B423" s="7" t="inlineStr">
-        <is>
-          <t>10.1145/3610914</t>
-        </is>
-      </c>
-      <c r="C423" s="7" t="inlineStr">
-        <is>
-          <t>Uncovering Bias in Personal Informatics</t>
-        </is>
-      </c>
-      <c r="D423" s="7" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E423" s="7" t="inlineStr">
-        <is>
-          <t>Proceedings of the ACM on Interactive Mobile Wearable and Ubiquitous Technologies</t>
-        </is>
-      </c>
-      <c r="F423" s="7" t="inlineStr">
-        <is>
-          <t>Full-Text</t>
-        </is>
-      </c>
-      <c r="G423" s="7" t="inlineStr">
-        <is>
-          <t>Excluded: insufficient approach content (0 indicators)</t>
-        </is>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" s="7" t="inlineStr">
-        <is>
-          <t>423</t>
-        </is>
-      </c>
-      <c r="B424" s="7" t="inlineStr">
-        <is>
-          <t>10.1145/3610213</t>
-        </is>
-      </c>
-      <c r="C424" s="7" t="inlineStr">
-        <is>
-          <t>The Potential of Diverse Youth as Stakeholders in Identifying and Mitigating Algorithmic Bias for a Future of Fairer AI</t>
-        </is>
-      </c>
-      <c r="D424" s="7" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E424" s="7" t="inlineStr">
-        <is>
-          <t>Proceedings of the ACM on Human-Computer Interaction</t>
-        </is>
-      </c>
-      <c r="F424" s="7" t="inlineStr">
-        <is>
-          <t>Full-Text</t>
-        </is>
-      </c>
-      <c r="G424" s="7" t="inlineStr">
-        <is>
-          <t>Excluded: insufficient approach content (0 indicators)</t>
-        </is>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" s="7" t="inlineStr">
-        <is>
-          <t>424</t>
-        </is>
-      </c>
-      <c r="B425" s="7" t="inlineStr">
-        <is>
-          <t>10.1145/3616380</t>
-        </is>
-      </c>
-      <c r="C425" s="7" t="inlineStr">
-        <is>
-          <t>Analysis of Performance Improvements and Bias Associated with the Use of Human Mobility Data in COVID-19 Case Prediction Models</t>
-        </is>
-      </c>
-      <c r="D425" s="7" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E425" s="7" t="inlineStr">
-        <is>
-          <t>ACM Journal on Computing and Sustainable Societies</t>
-        </is>
-      </c>
-      <c r="F425" s="7" t="inlineStr">
-        <is>
-          <t>Full-Text</t>
-        </is>
-      </c>
-      <c r="G425" s="7" t="inlineStr">
-        <is>
-          <t>Not health-related</t>
-        </is>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" s="7" t="inlineStr">
-        <is>
-          <t>425</t>
-        </is>
-      </c>
-      <c r="B426" s="7" t="inlineStr">
-        <is>
-          <t>10.1145/3386296.3386300</t>
-        </is>
-      </c>
-      <c r="C426" s="7" t="inlineStr">
-        <is>
-          <t>Artificial intelligence fairness in the context of accessibility research on intelligent systems for people who are deaf or hard of hearing</t>
-        </is>
-      </c>
-      <c r="D426" s="7" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E426" s="7" t="inlineStr">
-        <is>
-          <t>ACM SIGACCESS Accessibility and Computing</t>
-        </is>
-      </c>
-      <c r="F426" s="7" t="inlineStr">
-        <is>
-          <t>Full-Text</t>
-        </is>
-      </c>
-      <c r="G426" s="7" t="inlineStr">
-        <is>
-          <t>Excluded: insufficient approach content (0 indicators)</t>
-        </is>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="7" t="inlineStr">
-        <is>
-          <t>426</t>
-        </is>
-      </c>
-      <c r="B427" s="7" t="inlineStr">
-        <is>
-          <t>10.1145/3639368</t>
-        </is>
-      </c>
-      <c r="C427" s="7" t="inlineStr">
-        <is>
-          <t>Fairness-Driven Private Collaborative Machine Learning</t>
-        </is>
-      </c>
-      <c r="D427" s="7" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="E427" s="7" t="inlineStr">
-        <is>
-          <t>ACM Transactions on Intelligent Systems and Technology</t>
-        </is>
-      </c>
-      <c r="F427" s="7" t="inlineStr">
-        <is>
-          <t>Full-Text</t>
-        </is>
-      </c>
-      <c r="G427" s="7" t="inlineStr">
-        <is>
-          <t>Excluded: insufficient approach content (0 indicators)</t>
-        </is>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="7" t="inlineStr">
-        <is>
-          <t>427</t>
-        </is>
-      </c>
-      <c r="B428" s="7" t="inlineStr">
-        <is>
-          <t>10.1145/3473673</t>
-        </is>
-      </c>
-      <c r="C428" s="7" t="inlineStr">
-        <is>
-          <t>How Could Equality and Data Protection Law Shape AI Fairness for People with Disabilities?</t>
-        </is>
-      </c>
-      <c r="D428" s="7" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="E428" s="7" t="inlineStr">
-        <is>
-          <t>ACM Transactions on Accessible Computing</t>
-        </is>
-      </c>
-      <c r="F428" s="7" t="inlineStr">
-        <is>
-          <t>Full-Text</t>
-        </is>
-      </c>
-      <c r="G428" s="7" t="inlineStr">
-        <is>
-          <t>No AI/ML component</t>
         </is>
       </c>
     </row>
@@ -17684,12 +18264,12 @@
       </c>
       <c r="C1" s="10" t="inlineStr">
         <is>
-          <t>Search Terms</t>
+          <t>Query/Search</t>
         </is>
       </c>
       <c r="D1" s="10" t="inlineStr">
         <is>
-          <t>Results Found</t>
+          <t>Results</t>
         </is>
       </c>
       <c r="E1" s="10" t="inlineStr">

--- a/ACM_Screening_Results.xlsx
+++ b/ACM_Screening_Results.xlsx
@@ -982,7 +982,7 @@
       </c>
       <c r="J2" s="7" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K2" s="7" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="J3" s="8" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K3" s="8" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="J4" s="7" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K4" s="7" t="inlineStr">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="J5" s="8" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K5" s="8" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="J6" s="7" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K6" s="7" t="inlineStr">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="J7" s="8" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K7" s="8" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="J8" s="7" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K8" s="7" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="J9" s="8" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K9" s="8" t="inlineStr">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="J10" s="7" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K10" s="7" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="J11" s="8" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K11" s="8" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="J12" s="7" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K12" s="7" t="inlineStr">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="J13" s="8" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K13" s="8" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="J14" s="7" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K14" s="7" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="J15" s="8" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K15" s="8" t="inlineStr">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="J16" s="7" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K16" s="7" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="J17" s="8" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K17" s="8" t="inlineStr">
